--- a/storage/app/public/input data/nutrition.xlsx
+++ b/storage/app/public/input data/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83F5FA79-5093-4E1A-A2DE-AFDCCDA22E1B}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8932C6F-2AFF-4A2E-9153-2282F6A00140}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1884" windowWidth="23040" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="264">
   <si>
     <t>Country</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>Gambia</t>
+  </si>
+  <si>
+    <t>GMB</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45269144-F317-4114-9AD0-B0ABC756E2DB}" name="Tableau1" displayName="Tableau1" ref="A1:H427" totalsRowShown="0">
-  <autoFilter ref="A1:H427" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}"/>
+  <autoFilter ref="A1:H427" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D10F8B06-A887-41EE-91FF-2EFE1D042C0A}" name="Country"/>
     <tableColumn id="2" xr3:uid="{E8BC8353-A2AE-4C84-8D9E-A8A264474DBB}" name="Country iso3"/>
@@ -1549,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="F433" sqref="F433"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1596,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1674,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1934,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2031,7 +2038,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2135,7 +2142,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2161,7 +2168,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2213,7 +2220,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2343,7 +2350,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2395,7 +2402,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2532,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2681,7 +2688,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2707,7 +2714,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2733,7 +2740,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -2811,7 +2818,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2837,7 +2844,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +2870,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2941,7 +2948,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2967,7 +2974,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3123,7 +3130,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -3175,7 +3182,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3260,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -3279,7 +3286,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -3331,7 +3338,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -3357,7 +3364,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -3409,7 +3416,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -3487,7 +3494,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>128</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -3617,7 +3624,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -3643,7 +3650,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -3669,7 +3676,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -3695,7 +3702,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -3825,7 +3832,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -3929,7 +3936,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -3955,7 +3962,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -3981,7 +3988,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -4007,7 +4014,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -4059,7 +4066,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -4085,7 +4092,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -4137,7 +4144,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4189,7 +4196,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4319,7 +4326,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>72</v>
       </c>
@@ -4553,7 +4560,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -4579,7 +4586,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>72</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -4683,7 +4690,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -4735,7 +4742,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>72</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>72</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>72</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>72</v>
       </c>
@@ -4865,7 +4872,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>72</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>72</v>
       </c>
@@ -4917,7 +4924,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>72</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>72</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -5099,7 +5106,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>35</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -5177,7 +5184,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -5203,7 +5210,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -5229,7 +5236,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -5255,7 +5262,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -5281,7 +5288,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>211</v>
       </c>
@@ -5333,7 +5340,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>211</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -5411,7 +5418,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>211</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>211</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -5515,7 +5522,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -5541,7 +5548,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>211</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -5593,7 +5600,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>211</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>128</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>128</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>128</v>
       </c>
@@ -5723,7 +5730,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>128</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>128</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>128</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>128</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -5905,7 +5912,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>128</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>128</v>
       </c>
@@ -5957,7 +5964,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -5983,7 +5990,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -6009,7 +6016,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>120</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>120</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>120</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>112</v>
       </c>
@@ -6165,7 +6172,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>112</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -6269,7 +6276,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6354,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6380,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -6399,7 +6406,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -6425,7 +6432,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -6451,7 +6458,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -6477,7 +6484,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6536,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>112</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>72</v>
       </c>
@@ -6581,7 +6588,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -6607,7 +6614,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>72</v>
       </c>
@@ -6633,7 +6640,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>72</v>
       </c>
@@ -6659,7 +6666,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>72</v>
       </c>
@@ -6685,7 +6692,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>72</v>
       </c>
@@ -6711,7 +6718,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>72</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>72</v>
       </c>
@@ -6763,7 +6770,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>72</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>72</v>
       </c>
@@ -6815,7 +6822,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>72</v>
       </c>
@@ -6841,7 +6848,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>72</v>
       </c>
@@ -6893,7 +6900,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>72</v>
       </c>
@@ -6919,7 +6926,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -6945,7 +6952,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -6971,7 +6978,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>72</v>
       </c>
@@ -6997,7 +7004,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>72</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>72</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>72</v>
       </c>
@@ -7075,7 +7082,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>72</v>
       </c>
@@ -7101,7 +7108,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>72</v>
       </c>
@@ -7127,7 +7134,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>72</v>
       </c>
@@ -7153,7 +7160,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>52</v>
       </c>
@@ -7179,7 +7186,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>158</v>
       </c>
@@ -7205,7 +7212,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -7231,7 +7238,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>158</v>
       </c>
@@ -7257,7 +7264,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -7335,7 +7342,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -7361,7 +7368,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -7387,7 +7394,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7446,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -7465,7 +7472,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -7491,7 +7498,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -7517,7 +7524,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -7543,7 +7550,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -7569,7 +7576,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -7621,7 +7628,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -7647,7 +7654,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -7673,7 +7680,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>35</v>
       </c>
@@ -7725,7 +7732,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -7777,7 +7784,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>120</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>128</v>
       </c>
@@ -7829,7 +7836,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>128</v>
       </c>
@@ -7855,7 +7862,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>128</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>128</v>
       </c>
@@ -7907,7 +7914,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>128</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -7959,7 +7966,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -7985,7 +7992,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -8011,7 +8018,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -8063,7 +8070,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8096,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -8115,7 +8122,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8148,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -8167,7 +8174,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -8193,7 +8200,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -8245,7 +8252,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -8271,7 +8278,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>112</v>
       </c>
@@ -8297,7 +8304,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>72</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>72</v>
       </c>
@@ -8349,7 +8356,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>72</v>
       </c>
@@ -8375,7 +8382,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>72</v>
       </c>
@@ -8401,7 +8408,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>72</v>
       </c>
@@ -8427,7 +8434,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>72</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>72</v>
       </c>
@@ -8479,7 +8486,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>72</v>
       </c>
@@ -8505,7 +8512,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>72</v>
       </c>
@@ -8531,7 +8538,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>72</v>
       </c>
@@ -8557,7 +8564,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>72</v>
       </c>
@@ -8583,7 +8590,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>72</v>
       </c>
@@ -8609,7 +8616,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>72</v>
       </c>
@@ -8635,7 +8642,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>72</v>
       </c>
@@ -8661,7 +8668,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>72</v>
       </c>
@@ -8687,7 +8694,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>72</v>
       </c>
@@ -8713,7 +8720,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>72</v>
       </c>
@@ -8739,7 +8746,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>72</v>
       </c>
@@ -8765,7 +8772,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>72</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>72</v>
       </c>
@@ -8817,7 +8824,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>72</v>
       </c>
@@ -8843,7 +8850,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>72</v>
       </c>
@@ -8869,7 +8876,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>52</v>
       </c>
@@ -8895,7 +8902,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>52</v>
       </c>
@@ -8921,7 +8928,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>52</v>
       </c>
@@ -8947,7 +8954,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>52</v>
       </c>
@@ -8973,7 +8980,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -8999,7 +9006,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>52</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>52</v>
       </c>
@@ -9051,7 +9058,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -9077,7 +9084,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>52</v>
       </c>
@@ -9103,7 +9110,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9136,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>158</v>
       </c>
@@ -9155,7 +9162,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>158</v>
       </c>
@@ -9181,7 +9188,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>158</v>
       </c>
@@ -9207,7 +9214,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>158</v>
       </c>
@@ -9233,7 +9240,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>158</v>
       </c>
@@ -9259,7 +9266,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>158</v>
       </c>
@@ -9285,7 +9292,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>158</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>158</v>
       </c>
@@ -9337,7 +9344,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>158</v>
       </c>
@@ -9363,7 +9370,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>158</v>
       </c>
@@ -9389,7 +9396,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>158</v>
       </c>
@@ -9415,7 +9422,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>158</v>
       </c>
@@ -9441,7 +9448,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>158</v>
       </c>
@@ -9467,7 +9474,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>158</v>
       </c>
@@ -9493,7 +9500,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>158</v>
       </c>
@@ -9519,7 +9526,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>35</v>
       </c>
@@ -9571,7 +9578,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>35</v>
       </c>
@@ -9597,7 +9604,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>35</v>
       </c>
@@ -9623,7 +9630,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>35</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>35</v>
       </c>
@@ -9675,7 +9682,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>35</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>35</v>
       </c>
@@ -9727,7 +9734,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>120</v>
       </c>
@@ -9753,7 +9760,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>120</v>
       </c>
@@ -9779,7 +9786,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>120</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>128</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>128</v>
       </c>
@@ -9857,7 +9864,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>128</v>
       </c>
@@ -9883,7 +9890,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>128</v>
       </c>
@@ -9909,7 +9916,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>128</v>
       </c>
@@ -9935,7 +9942,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -9961,7 +9968,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>128</v>
       </c>
@@ -9987,7 +9994,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>128</v>
       </c>
@@ -10013,7 +10020,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>128</v>
       </c>
@@ -10039,7 +10046,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>128</v>
       </c>
@@ -10065,7 +10072,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>128</v>
       </c>
@@ -10091,7 +10098,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>128</v>
       </c>
@@ -10117,7 +10124,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>128</v>
       </c>
@@ -10143,7 +10150,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>128</v>
       </c>
@@ -10169,7 +10176,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -10192,7 +10199,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -10215,7 +10222,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -10238,7 +10245,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -10261,7 +10268,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -10284,7 +10291,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -10307,7 +10314,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -10353,7 +10360,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -10376,7 +10383,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -10399,7 +10406,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -10422,7 +10429,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -10445,7 +10452,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>112</v>
       </c>
@@ -10491,7 +10498,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>72</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>72</v>
       </c>
@@ -10537,7 +10544,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>72</v>
       </c>
@@ -10560,7 +10567,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>72</v>
       </c>
@@ -10583,7 +10590,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>72</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>72</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>72</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>72</v>
       </c>
@@ -10675,7 +10682,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>72</v>
       </c>
@@ -10698,7 +10705,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>72</v>
       </c>
@@ -10721,7 +10728,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>72</v>
       </c>
@@ -10744,7 +10751,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>72</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>72</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>72</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>72</v>
       </c>
@@ -10836,7 +10843,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>72</v>
       </c>
@@ -10859,7 +10866,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>72</v>
       </c>
@@ -10882,7 +10889,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>72</v>
       </c>
@@ -10905,7 +10912,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>72</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>72</v>
       </c>
@@ -10951,7 +10958,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>72</v>
       </c>
@@ -10974,7 +10981,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>72</v>
       </c>
@@ -10997,7 +11004,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>72</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>52</v>
       </c>
@@ -11043,7 +11050,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>52</v>
       </c>
@@ -11066,7 +11073,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>52</v>
       </c>
@@ -11089,7 +11096,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>52</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>52</v>
       </c>
@@ -11135,7 +11142,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>52</v>
       </c>
@@ -11158,7 +11165,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>52</v>
       </c>
@@ -11181,7 +11188,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>52</v>
       </c>
@@ -11204,7 +11211,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>52</v>
       </c>
@@ -11227,7 +11234,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>158</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>158</v>
       </c>
@@ -11273,7 +11280,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>158</v>
       </c>
@@ -11296,7 +11303,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>158</v>
       </c>
@@ -11319,7 +11326,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>158</v>
       </c>
@@ -11342,7 +11349,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>158</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>158</v>
       </c>
@@ -11388,7 +11395,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>158</v>
       </c>
@@ -11411,7 +11418,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>158</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>158</v>
       </c>
@@ -11457,7 +11464,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>158</v>
       </c>
@@ -11480,7 +11487,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>158</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>158</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>158</v>
       </c>
@@ -11549,7 +11556,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>158</v>
       </c>
@@ -11572,7 +11579,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>158</v>
       </c>
@@ -11595,7 +11602,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>35</v>
       </c>
@@ -11618,7 +11625,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>35</v>
       </c>
@@ -11641,7 +11648,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>35</v>
       </c>
@@ -11664,7 +11671,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>35</v>
       </c>
@@ -11687,7 +11694,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>35</v>
       </c>
@@ -11710,7 +11717,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>35</v>
       </c>
@@ -11733,7 +11740,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>35</v>
       </c>
@@ -11756,7 +11763,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>35</v>
       </c>
@@ -11779,7 +11786,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>120</v>
       </c>
@@ -11802,7 +11809,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>120</v>
       </c>
@@ -11825,7 +11832,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>120</v>
       </c>
@@ -11848,7 +11855,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>128</v>
       </c>
@@ -11871,7 +11878,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>128</v>
       </c>
@@ -11894,7 +11901,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>128</v>
       </c>
@@ -11917,7 +11924,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>128</v>
       </c>
@@ -11940,7 +11947,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>128</v>
       </c>
@@ -11963,7 +11970,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>128</v>
       </c>
@@ -11986,7 +11993,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>128</v>
       </c>
@@ -12009,7 +12016,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>128</v>
       </c>
@@ -12032,7 +12039,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>128</v>
       </c>
@@ -12055,7 +12062,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>128</v>
       </c>
@@ -12078,7 +12085,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>128</v>
       </c>
@@ -12101,7 +12108,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>128</v>
       </c>
@@ -12124,7 +12131,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>128</v>
       </c>
@@ -12147,7 +12154,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>128</v>
       </c>
@@ -12170,7 +12177,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -12187,7 +12194,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>112</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>72</v>
       </c>
@@ -12225,6 +12232,9 @@
       <c r="A422" t="s">
         <v>262</v>
       </c>
+      <c r="B422" t="s">
+        <v>263</v>
+      </c>
       <c r="E422" s="2">
         <v>5436</v>
       </c>
@@ -12235,7 +12245,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>52</v>
       </c>
@@ -12252,7 +12262,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>211</v>
       </c>
@@ -12269,7 +12279,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>35</v>
       </c>
@@ -12286,7 +12296,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>120</v>
       </c>
@@ -12303,7 +12313,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>128</v>
       </c>
@@ -12330,6 +12340,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
     <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
@@ -12546,22 +12571,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B51F62E-8D92-46EF-BBC4-A3E98ACFE27F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BED90AC-D4A9-46C8-9AFB-D9C4BC9AFDA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A9D398A-65AF-4384-8786-A2F89DB7FB27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12578,21 +12605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BED90AC-D4A9-46C8-9AFB-D9C4BC9AFDA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B51F62E-8D92-46EF-BBC4-A3E98ACFE27F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/storage/app/public/input data/nutrition.xlsx
+++ b/storage/app/public/input data/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0871B150-C3AF-4C3A-8A6E-B613CBEA8538}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9571B670-B171-431E-9532-F5D05366B105}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2172" windowWidth="22884" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="266">
   <si>
     <t>Country</t>
   </si>
@@ -1095,6 +1095,12 @@
   </si>
   <si>
     <t>BF57</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Unicef</t>
   </si>
 </sst>
 </file>
@@ -1185,15 +1191,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45269144-F317-4114-9AD0-B0ABC756E2DB}" name="Tableau1" displayName="Tableau1" ref="A1:H433" totalsRowShown="0">
-  <autoFilter ref="A1:H433" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Burkina Faso"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45269144-F317-4114-9AD0-B0ABC756E2DB}" name="Tableau1" displayName="Tableau1" ref="A1:I433" totalsRowShown="0">
+  <autoFilter ref="A1:I433" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D10F8B06-A887-41EE-91FF-2EFE1D042C0A}" name="Country"/>
     <tableColumn id="2" xr3:uid="{E8BC8353-A2AE-4C84-8D9E-A8A264474DBB}" name="Countryiso3"/>
     <tableColumn id="3" xr3:uid="{9DB8469F-BD77-4F95-9F8D-5D49E80089F0}" name="Admin1 name"/>
@@ -1202,6 +1202,7 @@
     <tableColumn id="6" xr3:uid="{47DE2ABF-0A74-449F-B242-3E611FB10275}" name="MAM"/>
     <tableColumn id="7" xr3:uid="{FBFD2194-5494-4078-B878-0FE4F03ACDF2}" name="GAM" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{AE166B97-F926-47BA-9FAE-72CB7798D054}" name="As of Date" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{3E5BE565-0FC5-4CD9-B108-0EBC7FF00CBE}" name="Source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1562,13 +1563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E348" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1582,7 @@
     <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,8 +1607,11 @@
       <c r="H1" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1632,8 +1636,11 @@
       <c r="H2" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1658,8 +1665,11 @@
       <c r="H3" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1694,11 @@
       <c r="H4" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1710,8 +1723,11 @@
       <c r="H5" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1736,8 +1752,11 @@
       <c r="H6" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1762,8 +1781,11 @@
       <c r="H7" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1788,8 +1810,11 @@
       <c r="H8" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1814,8 +1839,11 @@
       <c r="H9" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +1868,11 @@
       <c r="H10" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1866,8 +1897,11 @@
       <c r="H11" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1892,8 +1926,11 @@
       <c r="H12" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1918,8 +1955,11 @@
       <c r="H13" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1944,8 +1984,11 @@
       <c r="H14" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1970,8 +2013,11 @@
       <c r="H15" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1996,8 +2042,11 @@
       <c r="H16" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2022,8 +2071,11 @@
       <c r="H17" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2048,8 +2100,11 @@
       <c r="H18" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2074,8 +2129,11 @@
       <c r="H19" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2100,8 +2158,11 @@
       <c r="H20" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="H21" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2152,8 +2216,11 @@
       <c r="H22" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2178,8 +2245,11 @@
       <c r="H23" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2204,8 +2274,11 @@
       <c r="H24" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2230,8 +2303,11 @@
       <c r="H25" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2256,8 +2332,11 @@
       <c r="H26" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2282,8 +2361,11 @@
       <c r="H27" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2308,8 +2390,11 @@
       <c r="H28" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2419,11 @@
       <c r="H29" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2360,8 +2448,11 @@
       <c r="H30" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2386,8 +2477,11 @@
       <c r="H31" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2412,8 +2506,11 @@
       <c r="H32" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2438,8 +2535,11 @@
       <c r="H33" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2464,8 +2564,11 @@
       <c r="H34" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2490,8 +2593,11 @@
       <c r="H35" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2516,8 +2622,11 @@
       <c r="H36" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2542,8 +2651,11 @@
       <c r="H37" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2568,8 +2680,11 @@
       <c r="H38" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2594,8 +2709,11 @@
       <c r="H39" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2620,8 +2738,11 @@
       <c r="H40" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2646,8 +2767,11 @@
       <c r="H41" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2672,8 +2796,11 @@
       <c r="H42" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2698,8 +2825,11 @@
       <c r="H43" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2724,8 +2854,11 @@
       <c r="H44" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2750,8 +2883,11 @@
       <c r="H45" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2776,8 +2912,11 @@
       <c r="H46" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -2802,8 +2941,11 @@
       <c r="H47" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2828,8 +2970,11 @@
       <c r="H48" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2854,8 +2999,11 @@
       <c r="H49" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2880,8 +3028,11 @@
       <c r="H50" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2906,8 +3057,11 @@
       <c r="H51" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2932,8 +3086,11 @@
       <c r="H52" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2958,8 +3115,11 @@
       <c r="H53" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3144,11 @@
       <c r="H54" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3010,8 +3173,11 @@
       <c r="H55" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -3036,8 +3202,11 @@
       <c r="H56" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -3062,8 +3231,11 @@
       <c r="H57" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -3088,8 +3260,11 @@
       <c r="H58" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -3114,8 +3289,11 @@
       <c r="H59" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -3140,8 +3318,11 @@
       <c r="H60" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -3166,8 +3347,11 @@
       <c r="H61" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3192,8 +3376,11 @@
       <c r="H62" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3218,8 +3405,11 @@
       <c r="H63" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3244,8 +3434,11 @@
       <c r="H64" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -3270,8 +3463,11 @@
       <c r="H65" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -3296,8 +3492,11 @@
       <c r="H66" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3322,8 +3521,11 @@
       <c r="H67" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3348,8 +3550,11 @@
       <c r="H68" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -3374,8 +3579,11 @@
       <c r="H69" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3400,8 +3608,11 @@
       <c r="H70" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -3426,8 +3637,11 @@
       <c r="H71" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -3452,8 +3666,11 @@
       <c r="H72" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -3478,8 +3695,11 @@
       <c r="H73" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -3504,8 +3724,11 @@
       <c r="H74" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -3530,8 +3753,11 @@
       <c r="H75" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -3556,8 +3782,11 @@
       <c r="H76" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -3582,8 +3811,11 @@
       <c r="H77" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -3608,8 +3840,11 @@
       <c r="H78" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -3634,8 +3869,11 @@
       <c r="H79" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -3660,8 +3898,11 @@
       <c r="H80" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -3686,8 +3927,11 @@
       <c r="H81" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>135</v>
       </c>
@@ -3712,8 +3956,11 @@
       <c r="H82" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -3738,8 +3985,11 @@
       <c r="H83" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -3764,8 +4014,11 @@
       <c r="H84" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>135</v>
       </c>
@@ -3790,8 +4043,11 @@
       <c r="H85" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -3816,8 +4072,11 @@
       <c r="H86" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -3842,8 +4101,11 @@
       <c r="H87" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -3868,8 +4130,11 @@
       <c r="H88" s="1">
         <v>43100</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -3894,8 +4159,11 @@
       <c r="H89" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -3920,8 +4188,11 @@
       <c r="H90" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -3946,8 +4217,11 @@
       <c r="H91" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -3972,8 +4246,11 @@
       <c r="H92" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -3998,8 +4275,11 @@
       <c r="H93" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -4024,8 +4304,11 @@
       <c r="H94" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -4050,8 +4333,11 @@
       <c r="H95" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -4076,8 +4362,11 @@
       <c r="H96" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -4102,8 +4391,11 @@
       <c r="H97" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -4128,8 +4420,11 @@
       <c r="H98" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -4154,8 +4449,11 @@
       <c r="H99" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4180,8 +4478,11 @@
       <c r="H100" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4206,8 +4507,11 @@
       <c r="H101" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4232,8 +4536,11 @@
       <c r="H102" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4258,8 +4565,11 @@
       <c r="H103" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4284,8 +4594,11 @@
       <c r="H104" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4310,8 +4623,11 @@
       <c r="H105" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4336,8 +4652,11 @@
       <c r="H106" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4362,8 +4681,11 @@
       <c r="H107" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4388,8 +4710,11 @@
       <c r="H108" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4414,8 +4739,11 @@
       <c r="H109" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4440,8 +4768,11 @@
       <c r="H110" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4466,8 +4797,11 @@
       <c r="H111" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -4492,8 +4826,11 @@
       <c r="H112" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4518,8 +4855,11 @@
       <c r="H113" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -4544,8 +4884,11 @@
       <c r="H114" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -4570,8 +4913,11 @@
       <c r="H115" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -4596,8 +4942,11 @@
       <c r="H116" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -4622,8 +4971,11 @@
       <c r="H117" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>54</v>
       </c>
@@ -4648,8 +5000,11 @@
       <c r="H118" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -4674,8 +5029,11 @@
       <c r="H119" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -4700,8 +5058,11 @@
       <c r="H120" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -4726,8 +5087,11 @@
       <c r="H121" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -4752,8 +5116,11 @@
       <c r="H122" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -4778,8 +5145,11 @@
       <c r="H123" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -4804,8 +5174,11 @@
       <c r="H124" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -4830,8 +5203,11 @@
       <c r="H125" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -4856,8 +5232,11 @@
       <c r="H126" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -4882,8 +5261,11 @@
       <c r="H127" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -4908,8 +5290,11 @@
       <c r="H128" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -4934,8 +5319,11 @@
       <c r="H129" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -4960,8 +5348,11 @@
       <c r="H130" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -4986,8 +5377,11 @@
       <c r="H131" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>54</v>
       </c>
@@ -5012,8 +5406,11 @@
       <c r="H132" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>54</v>
       </c>
@@ -5038,8 +5435,11 @@
       <c r="H133" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>54</v>
       </c>
@@ -5064,8 +5464,11 @@
       <c r="H134" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>54</v>
       </c>
@@ -5090,8 +5493,11 @@
       <c r="H135" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>54</v>
       </c>
@@ -5116,8 +5522,11 @@
       <c r="H136" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -5142,8 +5551,11 @@
       <c r="H137" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -5168,8 +5580,11 @@
       <c r="H138" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -5194,8 +5609,11 @@
       <c r="H139" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -5220,8 +5638,11 @@
       <c r="H140" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -5246,8 +5667,11 @@
       <c r="H141" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -5272,8 +5696,11 @@
       <c r="H142" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -5298,8 +5725,11 @@
       <c r="H143" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -5324,8 +5754,11 @@
       <c r="H144" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>187</v>
       </c>
@@ -5350,8 +5783,11 @@
       <c r="H145" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -5376,8 +5812,11 @@
       <c r="H146" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>187</v>
       </c>
@@ -5402,8 +5841,11 @@
       <c r="H147" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>187</v>
       </c>
@@ -5428,8 +5870,11 @@
       <c r="H148" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -5454,8 +5899,11 @@
       <c r="H149" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>187</v>
       </c>
@@ -5480,8 +5928,11 @@
       <c r="H150" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>187</v>
       </c>
@@ -5506,8 +5957,11 @@
       <c r="H151" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -5532,8 +5986,11 @@
       <c r="H152" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -5558,8 +6015,11 @@
       <c r="H153" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -5584,8 +6044,11 @@
       <c r="H154" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -5610,8 +6073,11 @@
       <c r="H155" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>187</v>
       </c>
@@ -5636,8 +6102,11 @@
       <c r="H156" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>187</v>
       </c>
@@ -5662,8 +6131,11 @@
       <c r="H157" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>106</v>
       </c>
@@ -5688,8 +6160,11 @@
       <c r="H158" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>106</v>
       </c>
@@ -5714,8 +6189,11 @@
       <c r="H159" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>106</v>
       </c>
@@ -5740,8 +6218,11 @@
       <c r="H160" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>106</v>
       </c>
@@ -5766,8 +6247,11 @@
       <c r="H161" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>106</v>
       </c>
@@ -5792,8 +6276,11 @@
       <c r="H162" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>106</v>
       </c>
@@ -5818,8 +6305,11 @@
       <c r="H163" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>106</v>
       </c>
@@ -5844,8 +6334,11 @@
       <c r="H164" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>106</v>
       </c>
@@ -5870,8 +6363,11 @@
       <c r="H165" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -5896,8 +6392,11 @@
       <c r="H166" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>106</v>
       </c>
@@ -5922,8 +6421,11 @@
       <c r="H167" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>106</v>
       </c>
@@ -5948,8 +6450,11 @@
       <c r="H168" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>106</v>
       </c>
@@ -5974,8 +6479,11 @@
       <c r="H169" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>106</v>
       </c>
@@ -6000,8 +6508,11 @@
       <c r="H170" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>106</v>
       </c>
@@ -6026,8 +6537,11 @@
       <c r="H171" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>99</v>
       </c>
@@ -6052,8 +6566,11 @@
       <c r="H172" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>99</v>
       </c>
@@ -6078,8 +6595,11 @@
       <c r="H173" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>99</v>
       </c>
@@ -6104,8 +6624,11 @@
       <c r="H174" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>93</v>
       </c>
@@ -6130,8 +6653,11 @@
       <c r="H175" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>93</v>
       </c>
@@ -6156,8 +6682,11 @@
       <c r="H176" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>93</v>
       </c>
@@ -6182,8 +6711,11 @@
       <c r="H177" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>93</v>
       </c>
@@ -6208,8 +6740,11 @@
       <c r="H178" s="1">
         <v>43830</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -6234,8 +6769,11 @@
       <c r="H179" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -6260,8 +6798,11 @@
       <c r="H180" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6286,8 +6827,11 @@
       <c r="H181" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -6312,8 +6856,11 @@
       <c r="H182" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -6338,8 +6885,11 @@
       <c r="H183" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -6364,8 +6914,11 @@
       <c r="H184" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -6390,8 +6943,11 @@
       <c r="H185" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -6416,8 +6972,11 @@
       <c r="H186" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -6442,8 +7001,11 @@
       <c r="H187" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -6468,8 +7030,11 @@
       <c r="H188" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -6494,8 +7059,11 @@
       <c r="H189" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -6520,8 +7088,11 @@
       <c r="H190" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -6546,8 +7117,11 @@
       <c r="H191" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>93</v>
       </c>
@@ -6572,8 +7146,11 @@
       <c r="H192" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>54</v>
       </c>
@@ -6598,8 +7175,11 @@
       <c r="H193" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>54</v>
       </c>
@@ -6624,8 +7204,11 @@
       <c r="H194" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>54</v>
       </c>
@@ -6650,8 +7233,11 @@
       <c r="H195" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I195" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -6676,8 +7262,11 @@
       <c r="H196" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I196" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>54</v>
       </c>
@@ -6702,8 +7291,11 @@
       <c r="H197" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>54</v>
       </c>
@@ -6728,8 +7320,11 @@
       <c r="H198" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>54</v>
       </c>
@@ -6754,8 +7349,11 @@
       <c r="H199" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>54</v>
       </c>
@@ -6780,8 +7378,11 @@
       <c r="H200" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>54</v>
       </c>
@@ -6806,8 +7407,11 @@
       <c r="H201" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I201" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>54</v>
       </c>
@@ -6832,8 +7436,11 @@
       <c r="H202" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>54</v>
       </c>
@@ -6858,8 +7465,11 @@
       <c r="H203" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>54</v>
       </c>
@@ -6884,8 +7494,11 @@
       <c r="H204" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>54</v>
       </c>
@@ -6910,8 +7523,11 @@
       <c r="H205" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>54</v>
       </c>
@@ -6936,8 +7552,11 @@
       <c r="H206" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>54</v>
       </c>
@@ -6962,8 +7581,11 @@
       <c r="H207" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>54</v>
       </c>
@@ -6988,8 +7610,11 @@
       <c r="H208" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I208" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>54</v>
       </c>
@@ -7014,8 +7639,11 @@
       <c r="H209" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I209" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>54</v>
       </c>
@@ -7040,8 +7668,11 @@
       <c r="H210" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I210" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>54</v>
       </c>
@@ -7066,8 +7697,11 @@
       <c r="H211" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>54</v>
       </c>
@@ -7092,8 +7726,11 @@
       <c r="H212" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I212" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>54</v>
       </c>
@@ -7118,8 +7755,11 @@
       <c r="H213" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>54</v>
       </c>
@@ -7144,8 +7784,11 @@
       <c r="H214" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>54</v>
       </c>
@@ -7170,8 +7813,11 @@
       <c r="H215" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>35</v>
       </c>
@@ -7196,8 +7842,11 @@
       <c r="H216" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>135</v>
       </c>
@@ -7222,8 +7871,11 @@
       <c r="H217" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>135</v>
       </c>
@@ -7248,8 +7900,11 @@
       <c r="H218" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I218" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>135</v>
       </c>
@@ -7274,8 +7929,11 @@
       <c r="H219" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>135</v>
       </c>
@@ -7300,8 +7958,11 @@
       <c r="H220" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I220" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>135</v>
       </c>
@@ -7326,8 +7987,11 @@
       <c r="H221" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>135</v>
       </c>
@@ -7352,8 +8016,11 @@
       <c r="H222" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I222" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>135</v>
       </c>
@@ -7378,8 +8045,11 @@
       <c r="H223" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I223" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>135</v>
       </c>
@@ -7404,8 +8074,11 @@
       <c r="H224" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I224" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>135</v>
       </c>
@@ -7430,8 +8103,11 @@
       <c r="H225" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>135</v>
       </c>
@@ -7456,8 +8132,11 @@
       <c r="H226" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I226" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>135</v>
       </c>
@@ -7482,8 +8161,11 @@
       <c r="H227" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I227" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>135</v>
       </c>
@@ -7508,8 +8190,11 @@
       <c r="H228" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I228" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>135</v>
       </c>
@@ -7534,8 +8219,11 @@
       <c r="H229" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I229" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>135</v>
       </c>
@@ -7560,8 +8248,11 @@
       <c r="H230" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I230" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>135</v>
       </c>
@@ -7586,8 +8277,11 @@
       <c r="H231" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -7612,8 +8306,11 @@
       <c r="H232" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -7638,8 +8335,11 @@
       <c r="H233" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I233" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -7664,8 +8364,11 @@
       <c r="H234" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I234" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -7690,8 +8393,11 @@
       <c r="H235" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I235" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -7716,8 +8422,11 @@
       <c r="H236" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I236" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -7742,8 +8451,11 @@
       <c r="H237" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I237" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -7768,8 +8480,11 @@
       <c r="H238" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -7794,8 +8509,11 @@
       <c r="H239" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I239" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>99</v>
       </c>
@@ -7820,8 +8538,11 @@
       <c r="H240" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>106</v>
       </c>
@@ -7846,8 +8567,11 @@
       <c r="H241" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I241" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>106</v>
       </c>
@@ -7872,8 +8596,11 @@
       <c r="H242" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>106</v>
       </c>
@@ -7898,8 +8625,11 @@
       <c r="H243" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>106</v>
       </c>
@@ -7924,8 +8654,11 @@
       <c r="H244" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>106</v>
       </c>
@@ -7950,8 +8683,11 @@
       <c r="H245" s="1">
         <v>43465</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I245" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -7976,8 +8712,11 @@
       <c r="H246" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I246" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -8002,8 +8741,11 @@
       <c r="H247" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I247" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -8028,8 +8770,11 @@
       <c r="H248" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -8054,8 +8799,11 @@
       <c r="H249" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I249" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -8080,8 +8828,11 @@
       <c r="H250" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I250" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -8106,8 +8857,11 @@
       <c r="H251" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I251" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -8132,8 +8886,11 @@
       <c r="H252" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I252" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -8158,8 +8915,11 @@
       <c r="H253" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I253" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -8184,8 +8944,11 @@
       <c r="H254" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -8210,8 +8973,11 @@
       <c r="H255" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I255" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -8236,8 +9002,11 @@
       <c r="H256" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I256" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -8262,8 +9031,11 @@
       <c r="H257" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I257" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -8288,8 +9060,11 @@
       <c r="H258" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I258" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>93</v>
       </c>
@@ -8314,8 +9089,11 @@
       <c r="H259" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I259" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>54</v>
       </c>
@@ -8340,8 +9118,11 @@
       <c r="H260" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I260" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>54</v>
       </c>
@@ -8366,8 +9147,11 @@
       <c r="H261" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>54</v>
       </c>
@@ -8392,8 +9176,11 @@
       <c r="H262" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>54</v>
       </c>
@@ -8418,8 +9205,11 @@
       <c r="H263" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>54</v>
       </c>
@@ -8444,8 +9234,11 @@
       <c r="H264" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>54</v>
       </c>
@@ -8470,8 +9263,11 @@
       <c r="H265" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>54</v>
       </c>
@@ -8496,8 +9292,11 @@
       <c r="H266" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>54</v>
       </c>
@@ -8522,8 +9321,11 @@
       <c r="H267" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>54</v>
       </c>
@@ -8548,8 +9350,11 @@
       <c r="H268" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I268" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>54</v>
       </c>
@@ -8574,8 +9379,11 @@
       <c r="H269" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I269" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>54</v>
       </c>
@@ -8600,8 +9408,11 @@
       <c r="H270" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I270" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>54</v>
       </c>
@@ -8626,8 +9437,11 @@
       <c r="H271" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I271" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>54</v>
       </c>
@@ -8652,8 +9466,11 @@
       <c r="H272" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I272" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>54</v>
       </c>
@@ -8678,8 +9495,11 @@
       <c r="H273" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I273" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>54</v>
       </c>
@@ -8704,8 +9524,11 @@
       <c r="H274" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I274" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>54</v>
       </c>
@@ -8730,8 +9553,11 @@
       <c r="H275" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I275" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>54</v>
       </c>
@@ -8756,8 +9582,11 @@
       <c r="H276" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -8782,8 +9611,11 @@
       <c r="H277" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I277" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>54</v>
       </c>
@@ -8808,8 +9640,11 @@
       <c r="H278" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I278" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>54</v>
       </c>
@@ -8834,8 +9669,11 @@
       <c r="H279" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I279" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>54</v>
       </c>
@@ -8860,8 +9698,11 @@
       <c r="H280" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I280" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>54</v>
       </c>
@@ -8886,8 +9727,11 @@
       <c r="H281" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I281" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>35</v>
       </c>
@@ -8912,8 +9756,11 @@
       <c r="H282" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I282" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>35</v>
       </c>
@@ -8938,8 +9785,11 @@
       <c r="H283" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I283" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>35</v>
       </c>
@@ -8964,8 +9814,11 @@
       <c r="H284" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I284" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>35</v>
       </c>
@@ -8990,8 +9843,11 @@
       <c r="H285" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I285" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>35</v>
       </c>
@@ -9016,8 +9872,11 @@
       <c r="H286" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I286" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>35</v>
       </c>
@@ -9042,8 +9901,11 @@
       <c r="H287" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I287" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>35</v>
       </c>
@@ -9068,8 +9930,11 @@
       <c r="H288" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I288" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>35</v>
       </c>
@@ -9094,8 +9959,11 @@
       <c r="H289" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I289" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>35</v>
       </c>
@@ -9120,8 +9988,11 @@
       <c r="H290" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I290" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>135</v>
       </c>
@@ -9146,8 +10017,11 @@
       <c r="H291" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I291" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>135</v>
       </c>
@@ -9172,8 +10046,11 @@
       <c r="H292" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I292" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>135</v>
       </c>
@@ -9198,8 +10075,11 @@
       <c r="H293" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I293" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>135</v>
       </c>
@@ -9224,8 +10104,11 @@
       <c r="H294" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I294" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>135</v>
       </c>
@@ -9250,8 +10133,11 @@
       <c r="H295" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I295" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>135</v>
       </c>
@@ -9276,8 +10162,11 @@
       <c r="H296" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I296" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>135</v>
       </c>
@@ -9302,8 +10191,11 @@
       <c r="H297" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I297" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>135</v>
       </c>
@@ -9328,8 +10220,11 @@
       <c r="H298" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I298" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>135</v>
       </c>
@@ -9354,8 +10249,11 @@
       <c r="H299" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I299" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>135</v>
       </c>
@@ -9380,8 +10278,11 @@
       <c r="H300" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I300" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>135</v>
       </c>
@@ -9406,8 +10307,11 @@
       <c r="H301" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I301" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>135</v>
       </c>
@@ -9432,8 +10336,11 @@
       <c r="H302" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I302" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>135</v>
       </c>
@@ -9458,8 +10365,11 @@
       <c r="H303" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I303" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>135</v>
       </c>
@@ -9484,8 +10394,11 @@
       <c r="H304" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I304" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>135</v>
       </c>
@@ -9510,8 +10423,11 @@
       <c r="H305" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I305" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>135</v>
       </c>
@@ -9536,8 +10452,11 @@
       <c r="H306" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I306" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -9562,8 +10481,11 @@
       <c r="H307" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I307" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -9588,8 +10510,11 @@
       <c r="H308" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I308" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -9614,8 +10539,11 @@
       <c r="H309" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I309" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -9640,8 +10568,11 @@
       <c r="H310" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I310" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -9666,8 +10597,11 @@
       <c r="H311" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I311" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -9692,8 +10626,11 @@
       <c r="H312" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I312" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -9718,8 +10655,11 @@
       <c r="H313" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I313" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -9744,8 +10684,11 @@
       <c r="H314" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I314" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -9770,8 +10713,11 @@
       <c r="H315" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I315" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -9796,8 +10742,11 @@
       <c r="H316" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I316" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -9822,8 +10771,11 @@
       <c r="H317" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I317" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>106</v>
       </c>
@@ -9848,8 +10800,11 @@
       <c r="H318" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I318" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>106</v>
       </c>
@@ -9874,8 +10829,11 @@
       <c r="H319" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I319" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>106</v>
       </c>
@@ -9900,8 +10858,11 @@
       <c r="H320" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I320" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>106</v>
       </c>
@@ -9926,8 +10887,11 @@
       <c r="H321" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I321" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>106</v>
       </c>
@@ -9952,8 +10916,11 @@
       <c r="H322" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I322" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>106</v>
       </c>
@@ -9978,8 +10945,11 @@
       <c r="H323" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I323" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>106</v>
       </c>
@@ -10004,8 +10974,11 @@
       <c r="H324" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I324" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>106</v>
       </c>
@@ -10030,8 +11003,11 @@
       <c r="H325" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I325" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>106</v>
       </c>
@@ -10056,8 +11032,11 @@
       <c r="H326" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I326" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>106</v>
       </c>
@@ -10082,8 +11061,11 @@
       <c r="H327" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I327" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>106</v>
       </c>
@@ -10108,8 +11090,11 @@
       <c r="H328" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I328" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>106</v>
       </c>
@@ -10134,8 +11119,11 @@
       <c r="H329" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I329" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>106</v>
       </c>
@@ -10160,8 +11148,11 @@
       <c r="H330" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I330" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>106</v>
       </c>
@@ -10186,8 +11177,11 @@
       <c r="H331" s="1">
         <v>43878</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I331" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -10209,8 +11203,11 @@
       <c r="H332" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I332" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -10232,8 +11229,11 @@
       <c r="H333" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I333" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -10258,8 +11258,11 @@
       <c r="H334" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I334" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -10281,8 +11284,11 @@
       <c r="H335" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I335" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -10304,8 +11310,11 @@
       <c r="H336" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I336" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -10327,8 +11336,11 @@
       <c r="H337" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I337" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -10350,8 +11362,11 @@
       <c r="H338" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I338" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -10373,8 +11388,11 @@
       <c r="H339" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I339" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -10396,8 +11414,11 @@
       <c r="H340" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I340" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -10419,8 +11440,11 @@
       <c r="H341" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I341" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -10442,8 +11466,11 @@
       <c r="H342" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I342" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -10465,8 +11492,11 @@
       <c r="H343" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I343" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -10488,8 +11518,11 @@
       <c r="H344" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I344" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>93</v>
       </c>
@@ -10514,8 +11547,11 @@
       <c r="H345" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I345" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>54</v>
       </c>
@@ -10537,8 +11573,11 @@
       <c r="H346" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I346" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>54</v>
       </c>
@@ -10560,8 +11599,11 @@
       <c r="H347" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I347" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>54</v>
       </c>
@@ -10583,8 +11625,11 @@
       <c r="H348" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I348" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>54</v>
       </c>
@@ -10606,8 +11651,11 @@
       <c r="H349" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I349" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>54</v>
       </c>
@@ -10629,8 +11677,11 @@
       <c r="H350" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I350" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>54</v>
       </c>
@@ -10652,8 +11703,11 @@
       <c r="H351" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I351" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>54</v>
       </c>
@@ -10675,8 +11729,11 @@
       <c r="H352" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I352" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>54</v>
       </c>
@@ -10698,8 +11755,11 @@
       <c r="H353" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I353" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>54</v>
       </c>
@@ -10721,8 +11781,11 @@
       <c r="H354" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I354" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>54</v>
       </c>
@@ -10747,8 +11810,11 @@
       <c r="H355" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I355" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>54</v>
       </c>
@@ -10770,8 +11836,11 @@
       <c r="H356" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I356" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>54</v>
       </c>
@@ -10793,8 +11862,11 @@
       <c r="H357" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I357" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>54</v>
       </c>
@@ -10816,8 +11888,11 @@
       <c r="H358" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I358" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>54</v>
       </c>
@@ -10839,8 +11914,11 @@
       <c r="H359" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I359" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>54</v>
       </c>
@@ -10862,8 +11940,11 @@
       <c r="H360" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I360" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>54</v>
       </c>
@@ -10885,8 +11966,11 @@
       <c r="H361" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I361" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>54</v>
       </c>
@@ -10908,8 +11992,11 @@
       <c r="H362" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I362" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>54</v>
       </c>
@@ -10931,8 +12018,11 @@
       <c r="H363" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I363" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>54</v>
       </c>
@@ -10954,8 +12044,11 @@
       <c r="H364" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I364" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>54</v>
       </c>
@@ -10977,8 +12070,11 @@
       <c r="H365" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I365" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>54</v>
       </c>
@@ -11000,8 +12096,11 @@
       <c r="H366" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I366" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>54</v>
       </c>
@@ -11023,8 +12122,11 @@
       <c r="H367" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I367" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>54</v>
       </c>
@@ -11046,8 +12148,11 @@
       <c r="H368" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I368" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>35</v>
       </c>
@@ -11069,8 +12174,11 @@
       <c r="H369" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I369" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>35</v>
       </c>
@@ -11092,8 +12200,11 @@
       <c r="H370" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I370" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -11115,8 +12226,11 @@
       <c r="H371" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I371" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>35</v>
       </c>
@@ -11138,8 +12252,11 @@
       <c r="H372" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I372" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>35</v>
       </c>
@@ -11161,8 +12278,11 @@
       <c r="H373" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I373" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>35</v>
       </c>
@@ -11184,8 +12304,11 @@
       <c r="H374" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I374" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>35</v>
       </c>
@@ -11207,8 +12330,11 @@
       <c r="H375" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I375" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>35</v>
       </c>
@@ -11230,8 +12356,11 @@
       <c r="H376" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I376" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>35</v>
       </c>
@@ -11253,8 +12382,11 @@
       <c r="H377" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I377" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>135</v>
       </c>
@@ -11276,8 +12408,11 @@
       <c r="H378" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I378" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>135</v>
       </c>
@@ -11299,8 +12434,11 @@
       <c r="H379" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I379" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>135</v>
       </c>
@@ -11322,8 +12460,11 @@
       <c r="H380" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I380" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>135</v>
       </c>
@@ -11345,8 +12486,11 @@
       <c r="H381" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I381" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>135</v>
       </c>
@@ -11368,8 +12512,11 @@
       <c r="H382" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I382" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>135</v>
       </c>
@@ -11391,8 +12538,11 @@
       <c r="H383" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I383" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>135</v>
       </c>
@@ -11414,8 +12564,11 @@
       <c r="H384" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I384" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>135</v>
       </c>
@@ -11437,8 +12590,11 @@
       <c r="H385" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I385" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>135</v>
       </c>
@@ -11460,8 +12616,11 @@
       <c r="H386" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I386" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>135</v>
       </c>
@@ -11483,8 +12642,11 @@
       <c r="H387" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I387" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>135</v>
       </c>
@@ -11506,8 +12668,11 @@
       <c r="H388" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I388" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>135</v>
       </c>
@@ -11529,8 +12694,11 @@
       <c r="H389" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I389" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>135</v>
       </c>
@@ -11552,8 +12720,11 @@
       <c r="H390" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I390" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>135</v>
       </c>
@@ -11575,8 +12746,11 @@
       <c r="H391" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I391" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>135</v>
       </c>
@@ -11598,8 +12772,11 @@
       <c r="H392" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I392" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>135</v>
       </c>
@@ -11621,8 +12798,11 @@
       <c r="H393" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I393" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -11644,8 +12824,11 @@
       <c r="H394" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I394" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -11670,8 +12853,11 @@
       <c r="H395" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I395" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>19</v>
       </c>
@@ -11693,8 +12879,11 @@
       <c r="H396" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I396" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -11716,8 +12905,11 @@
       <c r="H397" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I397" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>19</v>
       </c>
@@ -11739,8 +12931,11 @@
       <c r="H398" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I398" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>19</v>
       </c>
@@ -11765,8 +12960,11 @@
       <c r="H399" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I399" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>19</v>
       </c>
@@ -11791,8 +12989,11 @@
       <c r="H400" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I400" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>19</v>
       </c>
@@ -11814,8 +13015,11 @@
       <c r="H401" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I401" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>99</v>
       </c>
@@ -11840,8 +13044,11 @@
       <c r="H402" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I402" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>99</v>
       </c>
@@ -11866,8 +13073,11 @@
       <c r="H403" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I403" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>99</v>
       </c>
@@ -11892,8 +13102,11 @@
       <c r="H404" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I404" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>106</v>
       </c>
@@ -11915,8 +13128,11 @@
       <c r="H405" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I405" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>106</v>
       </c>
@@ -11938,8 +13154,11 @@
       <c r="H406" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I406" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>106</v>
       </c>
@@ -11961,8 +13180,11 @@
       <c r="H407" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I407" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>106</v>
       </c>
@@ -11984,8 +13206,11 @@
       <c r="H408" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I408" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>106</v>
       </c>
@@ -12007,8 +13232,11 @@
       <c r="H409" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I409" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>106</v>
       </c>
@@ -12030,8 +13258,11 @@
       <c r="H410" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I410" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>106</v>
       </c>
@@ -12053,8 +13284,11 @@
       <c r="H411" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I411" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>106</v>
       </c>
@@ -12076,8 +13310,11 @@
       <c r="H412" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I412" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>106</v>
       </c>
@@ -12099,8 +13336,11 @@
       <c r="H413" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I413" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>106</v>
       </c>
@@ -12122,8 +13362,11 @@
       <c r="H414" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I414" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>106</v>
       </c>
@@ -12145,8 +13388,11 @@
       <c r="H415" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I415" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>106</v>
       </c>
@@ -12168,8 +13414,11 @@
       <c r="H416" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I416" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>106</v>
       </c>
@@ -12191,8 +13440,11 @@
       <c r="H417" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I417" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>106</v>
       </c>
@@ -12214,8 +13466,11 @@
       <c r="H418" s="1">
         <v>44235</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I418" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -12231,8 +13486,11 @@
       <c r="H419" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I419" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>93</v>
       </c>
@@ -12248,8 +13506,11 @@
       <c r="H420" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I420" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>54</v>
       </c>
@@ -12265,8 +13526,11 @@
       <c r="H421" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I421" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>238</v>
       </c>
@@ -12282,8 +13546,11 @@
       <c r="H422" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I422" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>35</v>
       </c>
@@ -12299,8 +13566,11 @@
       <c r="H423" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I423" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>187</v>
       </c>
@@ -12316,8 +13586,11 @@
       <c r="H424" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I424" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>19</v>
       </c>
@@ -12333,8 +13606,11 @@
       <c r="H425" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I425" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>99</v>
       </c>
@@ -12350,8 +13626,11 @@
       <c r="H426" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I426" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>106</v>
       </c>
@@ -12367,8 +13646,11 @@
       <c r="H427" s="1">
         <v>44265</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I427" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>93</v>
       </c>
@@ -12393,8 +13675,11 @@
       <c r="H428" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I428" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>19</v>
       </c>
@@ -12419,8 +13704,11 @@
       <c r="H429" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I429" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -12445,8 +13733,11 @@
       <c r="H430" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I430" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>99</v>
       </c>
@@ -12471,8 +13762,11 @@
       <c r="H431" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I431" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>99</v>
       </c>
@@ -12497,8 +13791,11 @@
       <c r="H432" s="1">
         <v>44278</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I432" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>54</v>
       </c>
@@ -12519,6 +13816,9 @@
       </c>
       <c r="H433" s="1">
         <v>44278</v>
+      </c>
+      <c r="I433" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/input data/nutrition.xlsx
+++ b/storage/app/public/input data/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9571B670-B171-431E-9532-F5D05366B105}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9D918ECA-2766-480C-A566-F314E384B7FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2172" windowWidth="22884" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="265">
   <si>
     <t>Country</t>
   </si>
@@ -1023,9 +1023,6 @@
   </si>
   <si>
     <t>GMB</t>
-  </si>
-  <si>
-    <t>Extrême-Nord</t>
   </si>
   <si>
     <t>Countryiso3</t>
@@ -1566,10 +1563,10 @@
   <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I433"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57:C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1608,7 +1605,7 @@
         <v>237</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1616,13 +1613,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>31894</v>
@@ -1637,7 +1634,7 @@
         <v>43100</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1645,13 +1642,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3">
         <v>3617</v>
@@ -1666,7 +1663,7 @@
         <v>43100</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1674,13 +1671,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4">
         <v>4860</v>
@@ -1695,7 +1692,7 @@
         <v>43100</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1703,13 +1700,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5">
         <v>6998</v>
@@ -1724,7 +1721,7 @@
         <v>43100</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1732,13 +1729,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>19127</v>
@@ -1753,7 +1750,7 @@
         <v>43100</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1761,13 +1758,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>18597</v>
@@ -1782,7 +1779,7 @@
         <v>43100</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1790,13 +1787,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8">
         <v>11352</v>
@@ -1811,7 +1808,7 @@
         <v>43100</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1819,13 +1816,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9">
         <v>20018</v>
@@ -1840,7 +1837,7 @@
         <v>43100</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1848,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>6941</v>
@@ -1869,7 +1866,7 @@
         <v>43100</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1877,13 +1874,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11">
         <v>20798</v>
@@ -1898,7 +1895,7 @@
         <v>43100</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1906,13 +1903,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12">
         <v>6408</v>
@@ -1927,7 +1924,7 @@
         <v>43100</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1935,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13">
         <v>24053</v>
@@ -1956,7 +1953,7 @@
         <v>43100</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1964,13 +1961,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>13507</v>
@@ -1985,7 +1982,7 @@
         <v>43100</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1993,7 +1990,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -2014,7 +2011,7 @@
         <v>43100</v>
       </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2022,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>180</v>
@@ -2043,7 +2040,7 @@
         <v>43100</v>
       </c>
       <c r="I16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2051,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -2072,7 +2069,7 @@
         <v>43100</v>
       </c>
       <c r="I17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2080,7 +2077,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2101,7 +2098,7 @@
         <v>43100</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2109,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2130,7 +2127,7 @@
         <v>43100</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2138,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2159,7 +2156,7 @@
         <v>43100</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2167,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -2188,7 +2185,7 @@
         <v>43100</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2196,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -2217,7 +2214,7 @@
         <v>43100</v>
       </c>
       <c r="I22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2225,7 +2222,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2246,7 +2243,7 @@
         <v>43100</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2254,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -2275,7 +2272,7 @@
         <v>43100</v>
       </c>
       <c r="I24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2283,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -2304,7 +2301,7 @@
         <v>43100</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2312,7 +2309,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -2333,7 +2330,7 @@
         <v>43100</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2341,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -2362,7 +2359,7 @@
         <v>43100</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2370,7 +2367,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -2391,7 +2388,7 @@
         <v>43100</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2399,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
@@ -2420,7 +2417,7 @@
         <v>43100</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2428,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -2449,7 +2446,7 @@
         <v>43100</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2457,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -2478,7 +2475,7 @@
         <v>43100</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2486,7 +2483,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2507,7 +2504,7 @@
         <v>43100</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2515,7 +2512,7 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -2536,7 +2533,7 @@
         <v>43100</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2544,7 +2541,7 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -2565,7 +2562,7 @@
         <v>43100</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2573,7 +2570,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -2594,7 +2591,7 @@
         <v>43100</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2602,7 +2599,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -2623,7 +2620,7 @@
         <v>43100</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2631,7 +2628,7 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2652,7 +2649,7 @@
         <v>43100</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2660,7 +2657,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
@@ -2681,7 +2678,7 @@
         <v>43100</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2689,7 +2686,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -2710,7 +2707,7 @@
         <v>43100</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2718,7 +2715,7 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -2739,7 +2736,7 @@
         <v>43100</v>
       </c>
       <c r="I40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2747,7 +2744,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s">
         <v>70</v>
@@ -2768,7 +2765,7 @@
         <v>43100</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2776,7 +2773,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -2797,7 +2794,7 @@
         <v>43100</v>
       </c>
       <c r="I42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2805,7 +2802,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
         <v>74</v>
@@ -2826,7 +2823,7 @@
         <v>43100</v>
       </c>
       <c r="I43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2834,7 +2831,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
@@ -2855,7 +2852,7 @@
         <v>43100</v>
       </c>
       <c r="I44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2863,7 +2860,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
         <v>78</v>
@@ -2884,7 +2881,7 @@
         <v>43100</v>
       </c>
       <c r="I45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2892,7 +2889,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
@@ -2913,7 +2910,7 @@
         <v>43100</v>
       </c>
       <c r="I46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2921,7 +2918,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
@@ -2942,7 +2939,7 @@
         <v>43100</v>
       </c>
       <c r="I47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2950,7 +2947,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -2971,7 +2968,7 @@
         <v>43100</v>
       </c>
       <c r="I48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2979,7 +2976,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -3000,7 +2997,7 @@
         <v>43100</v>
       </c>
       <c r="I49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3008,7 +3005,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
@@ -3029,7 +3026,7 @@
         <v>43100</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3037,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -3058,7 +3055,7 @@
         <v>43100</v>
       </c>
       <c r="I51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3066,7 +3063,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
         <v>88</v>
@@ -3087,7 +3084,7 @@
         <v>43100</v>
       </c>
       <c r="I52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3095,7 +3092,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
@@ -3116,7 +3113,7 @@
         <v>43100</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3124,7 +3121,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
         <v>91</v>
@@ -3145,7 +3142,7 @@
         <v>43100</v>
       </c>
       <c r="I54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3153,7 +3150,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -3174,7 +3171,7 @@
         <v>43100</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3182,7 +3179,7 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3203,7 +3200,7 @@
         <v>43100</v>
       </c>
       <c r="I56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3211,7 +3208,7 @@
         <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
         <v>206</v>
@@ -3232,7 +3229,7 @@
         <v>43100</v>
       </c>
       <c r="I57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3240,7 +3237,7 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -3261,7 +3258,7 @@
         <v>43100</v>
       </c>
       <c r="I58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3269,7 +3266,7 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
         <v>100</v>
@@ -3290,7 +3287,7 @@
         <v>43100</v>
       </c>
       <c r="I59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3298,7 +3295,7 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
         <v>102</v>
@@ -3319,7 +3316,7 @@
         <v>43100</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3327,7 +3324,7 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
         <v>104</v>
@@ -3348,7 +3345,7 @@
         <v>43100</v>
       </c>
       <c r="I61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3356,7 +3353,7 @@
         <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
         <v>107</v>
@@ -3377,7 +3374,7 @@
         <v>43100</v>
       </c>
       <c r="I62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3385,7 +3382,7 @@
         <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
@@ -3406,7 +3403,7 @@
         <v>43100</v>
       </c>
       <c r="I63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3414,7 +3411,7 @@
         <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>111</v>
@@ -3435,7 +3432,7 @@
         <v>43100</v>
       </c>
       <c r="I64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3443,7 +3440,7 @@
         <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
         <v>113</v>
@@ -3464,7 +3461,7 @@
         <v>43100</v>
       </c>
       <c r="I65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3472,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
         <v>115</v>
@@ -3493,7 +3490,7 @@
         <v>43100</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3501,7 +3498,7 @@
         <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
         <v>117</v>
@@ -3522,7 +3519,7 @@
         <v>43100</v>
       </c>
       <c r="I67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3530,7 +3527,7 @@
         <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
         <v>119</v>
@@ -3551,7 +3548,7 @@
         <v>43100</v>
       </c>
       <c r="I68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3559,7 +3556,7 @@
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
         <v>121</v>
@@ -3580,7 +3577,7 @@
         <v>43100</v>
       </c>
       <c r="I69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3588,7 +3585,7 @@
         <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
         <v>123</v>
@@ -3609,7 +3606,7 @@
         <v>43100</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3617,7 +3614,7 @@
         <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
         <v>125</v>
@@ -3638,7 +3635,7 @@
         <v>43100</v>
       </c>
       <c r="I71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3646,7 +3643,7 @@
         <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
@@ -3667,7 +3664,7 @@
         <v>43100</v>
       </c>
       <c r="I72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -3675,7 +3672,7 @@
         <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C73" t="s">
         <v>129</v>
@@ -3696,7 +3693,7 @@
         <v>43100</v>
       </c>
       <c r="I73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3704,7 +3701,7 @@
         <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -3725,7 +3722,7 @@
         <v>43100</v>
       </c>
       <c r="I74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3733,7 +3730,7 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
         <v>133</v>
@@ -3754,7 +3751,7 @@
         <v>43100</v>
       </c>
       <c r="I75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3762,7 +3759,7 @@
         <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
         <v>136</v>
@@ -3783,7 +3780,7 @@
         <v>43100</v>
       </c>
       <c r="I76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3791,7 +3788,7 @@
         <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
         <v>137</v>
@@ -3812,7 +3809,7 @@
         <v>43100</v>
       </c>
       <c r="I77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3820,7 +3817,7 @@
         <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
         <v>139</v>
@@ -3841,7 +3838,7 @@
         <v>43100</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3849,7 +3846,7 @@
         <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
         <v>141</v>
@@ -3870,7 +3867,7 @@
         <v>43100</v>
       </c>
       <c r="I79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3878,7 +3875,7 @@
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
         <v>143</v>
@@ -3899,7 +3896,7 @@
         <v>43100</v>
       </c>
       <c r="I80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3907,7 +3904,7 @@
         <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
         <v>145</v>
@@ -3928,7 +3925,7 @@
         <v>43100</v>
       </c>
       <c r="I81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3936,7 +3933,7 @@
         <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" t="s">
         <v>147</v>
@@ -3957,7 +3954,7 @@
         <v>43100</v>
       </c>
       <c r="I82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3965,7 +3962,7 @@
         <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C83" t="s">
         <v>149</v>
@@ -3986,7 +3983,7 @@
         <v>43100</v>
       </c>
       <c r="I83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3994,7 +3991,7 @@
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
         <v>150</v>
@@ -4015,7 +4012,7 @@
         <v>43100</v>
       </c>
       <c r="I84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4023,7 +4020,7 @@
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C85" t="s">
         <v>152</v>
@@ -4044,7 +4041,7 @@
         <v>43100</v>
       </c>
       <c r="I85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4052,7 +4049,7 @@
         <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C86" t="s">
         <v>154</v>
@@ -4073,7 +4070,7 @@
         <v>43100</v>
       </c>
       <c r="I86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4081,7 +4078,7 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
         <v>155</v>
@@ -4102,7 +4099,7 @@
         <v>43100</v>
       </c>
       <c r="I87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4110,7 +4107,7 @@
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
         <v>157</v>
@@ -4131,7 +4128,7 @@
         <v>43100</v>
       </c>
       <c r="I88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4139,7 +4136,7 @@
         <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C89" t="s">
         <v>52</v>
@@ -4160,7 +4157,7 @@
         <v>43830</v>
       </c>
       <c r="I89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4168,7 +4165,7 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -4189,7 +4186,7 @@
         <v>43830</v>
       </c>
       <c r="I90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4197,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
@@ -4218,7 +4215,7 @@
         <v>43830</v>
       </c>
       <c r="I91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4226,7 +4223,7 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
         <v>40</v>
@@ -4247,7 +4244,7 @@
         <v>43830</v>
       </c>
       <c r="I92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4255,7 +4252,7 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
         <v>42</v>
@@ -4276,7 +4273,7 @@
         <v>43830</v>
       </c>
       <c r="I93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4284,7 +4281,7 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
         <v>44</v>
@@ -4305,7 +4302,7 @@
         <v>43830</v>
       </c>
       <c r="I94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4313,7 +4310,7 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
@@ -4334,7 +4331,7 @@
         <v>43830</v>
       </c>
       <c r="I95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4342,7 +4339,7 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
         <v>159</v>
@@ -4363,7 +4360,7 @@
         <v>43830</v>
       </c>
       <c r="I96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -4371,7 +4368,7 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
         <v>48</v>
@@ -4392,7 +4389,7 @@
         <v>43830</v>
       </c>
       <c r="I97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4400,7 +4397,7 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
         <v>160</v>
@@ -4421,7 +4418,7 @@
         <v>43830</v>
       </c>
       <c r="I98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -4429,7 +4426,7 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
         <v>50</v>
@@ -4450,7 +4447,7 @@
         <v>43830</v>
       </c>
       <c r="I99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -4458,13 +4455,13 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E100">
         <v>12276</v>
@@ -4479,7 +4476,7 @@
         <v>43830</v>
       </c>
       <c r="I100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -4487,13 +4484,13 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E101">
         <v>4467</v>
@@ -4508,7 +4505,7 @@
         <v>43830</v>
       </c>
       <c r="I101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -4516,13 +4513,13 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102">
         <v>15834</v>
@@ -4537,7 +4534,7 @@
         <v>43830</v>
       </c>
       <c r="I102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -4545,13 +4542,13 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E103">
         <v>8034</v>
@@ -4566,7 +4563,7 @@
         <v>43830</v>
       </c>
       <c r="I103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -4574,13 +4571,13 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E104">
         <v>14038</v>
@@ -4595,7 +4592,7 @@
         <v>43830</v>
       </c>
       <c r="I104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -4603,13 +4600,13 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E105">
         <v>8709</v>
@@ -4624,7 +4621,7 @@
         <v>43830</v>
       </c>
       <c r="I105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,13 +4629,13 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E106">
         <v>3030</v>
@@ -4653,7 +4650,7 @@
         <v>43830</v>
       </c>
       <c r="I106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -4661,13 +4658,13 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E107">
         <v>11151</v>
@@ -4682,7 +4679,7 @@
         <v>43830</v>
       </c>
       <c r="I107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -4690,13 +4687,13 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E108">
         <v>8196</v>
@@ -4711,7 +4708,7 @@
         <v>43830</v>
       </c>
       <c r="I108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -4719,13 +4716,13 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E109">
         <v>11226</v>
@@ -4740,7 +4737,7 @@
         <v>43830</v>
       </c>
       <c r="I109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4748,13 +4745,13 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110">
         <v>10692</v>
@@ -4769,7 +4766,7 @@
         <v>43830</v>
       </c>
       <c r="I110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4777,13 +4774,13 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E111">
         <v>19282</v>
@@ -4798,7 +4795,7 @@
         <v>43830</v>
       </c>
       <c r="I111" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4806,7 +4803,7 @@
         <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C112" t="s">
         <v>161</v>
@@ -4827,7 +4824,7 @@
         <v>43878</v>
       </c>
       <c r="I112" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -4835,13 +4832,13 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E113">
         <v>6131</v>
@@ -4856,7 +4853,7 @@
         <v>43830</v>
       </c>
       <c r="I113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -4864,7 +4861,7 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C114" t="s">
         <v>162</v>
@@ -4885,7 +4882,7 @@
         <v>43830</v>
       </c>
       <c r="I114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4893,7 +4890,7 @@
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" t="s">
         <v>57</v>
@@ -4914,7 +4911,7 @@
         <v>43830</v>
       </c>
       <c r="I115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -4922,7 +4919,7 @@
         <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
         <v>89</v>
@@ -4943,7 +4940,7 @@
         <v>43830</v>
       </c>
       <c r="I116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -4951,7 +4948,7 @@
         <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" t="s">
         <v>164</v>
@@ -4972,7 +4969,7 @@
         <v>43830</v>
       </c>
       <c r="I117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -4980,7 +4977,7 @@
         <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
         <v>59</v>
@@ -5001,7 +4998,7 @@
         <v>43830</v>
       </c>
       <c r="I118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -5009,7 +5006,7 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
         <v>60</v>
@@ -5030,7 +5027,7 @@
         <v>43830</v>
       </c>
       <c r="I119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5038,7 +5035,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s">
         <v>166</v>
@@ -5059,7 +5056,7 @@
         <v>43830</v>
       </c>
       <c r="I120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5067,7 +5064,7 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
         <v>168</v>
@@ -5088,7 +5085,7 @@
         <v>43830</v>
       </c>
       <c r="I121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5096,7 +5093,7 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
@@ -5117,7 +5114,7 @@
         <v>43830</v>
       </c>
       <c r="I122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5125,7 +5122,7 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
         <v>66</v>
@@ -5146,7 +5143,7 @@
         <v>43830</v>
       </c>
       <c r="I123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -5154,7 +5151,7 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
         <v>170</v>
@@ -5175,7 +5172,7 @@
         <v>43830</v>
       </c>
       <c r="I124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -5183,7 +5180,7 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C125" t="s">
         <v>171</v>
@@ -5204,7 +5201,7 @@
         <v>43830</v>
       </c>
       <c r="I125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -5212,7 +5209,7 @@
         <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C126" t="s">
         <v>72</v>
@@ -5233,7 +5230,7 @@
         <v>43830</v>
       </c>
       <c r="I126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -5241,7 +5238,7 @@
         <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C127" t="s">
         <v>172</v>
@@ -5262,7 +5259,7 @@
         <v>43830</v>
       </c>
       <c r="I127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -5270,7 +5267,7 @@
         <v>54</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C128" t="s">
         <v>173</v>
@@ -5291,7 +5288,7 @@
         <v>43830</v>
       </c>
       <c r="I128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -5299,7 +5296,7 @@
         <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
         <v>175</v>
@@ -5320,7 +5317,7 @@
         <v>43830</v>
       </c>
       <c r="I129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -5328,7 +5325,7 @@
         <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C130" t="s">
         <v>74</v>
@@ -5349,7 +5346,7 @@
         <v>43830</v>
       </c>
       <c r="I130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -5357,7 +5354,7 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
         <v>76</v>
@@ -5378,7 +5375,7 @@
         <v>43830</v>
       </c>
       <c r="I131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -5386,7 +5383,7 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C132" t="s">
         <v>78</v>
@@ -5407,7 +5404,7 @@
         <v>43830</v>
       </c>
       <c r="I132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -5415,7 +5412,7 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C133" t="s">
         <v>80</v>
@@ -5436,7 +5433,7 @@
         <v>43830</v>
       </c>
       <c r="I133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -5444,7 +5441,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C134" t="s">
         <v>177</v>
@@ -5465,7 +5462,7 @@
         <v>43830</v>
       </c>
       <c r="I134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -5473,7 +5470,7 @@
         <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C135" t="s">
         <v>91</v>
@@ -5494,7 +5491,7 @@
         <v>43830</v>
       </c>
       <c r="I135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -5502,7 +5499,7 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
         <v>82</v>
@@ -5523,7 +5520,7 @@
         <v>43830</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,7 +5528,7 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
         <v>179</v>
@@ -5552,7 +5549,7 @@
         <v>43830</v>
       </c>
       <c r="I137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -5560,7 +5557,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s">
         <v>180</v>
@@ -5581,7 +5578,7 @@
         <v>43830</v>
       </c>
       <c r="I138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -5589,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C139" t="s">
         <v>181</v>
@@ -5610,7 +5607,7 @@
         <v>43830</v>
       </c>
       <c r="I139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -5618,7 +5615,7 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C140" t="s">
         <v>182</v>
@@ -5639,7 +5636,7 @@
         <v>43830</v>
       </c>
       <c r="I140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -5647,7 +5644,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
@@ -5668,7 +5665,7 @@
         <v>43830</v>
       </c>
       <c r="I141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -5676,7 +5673,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
         <v>184</v>
@@ -5697,7 +5694,7 @@
         <v>43830</v>
       </c>
       <c r="I142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -5705,7 +5702,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
         <v>185</v>
@@ -5726,7 +5723,7 @@
         <v>43830</v>
       </c>
       <c r="I143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -5734,7 +5731,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
         <v>186</v>
@@ -5755,7 +5752,7 @@
         <v>43830</v>
       </c>
       <c r="I144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -5763,7 +5760,7 @@
         <v>187</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C145" t="s">
         <v>136</v>
@@ -5784,7 +5781,7 @@
         <v>43830</v>
       </c>
       <c r="I145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -5792,7 +5789,7 @@
         <v>187</v>
       </c>
       <c r="B146" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C146" t="s">
         <v>137</v>
@@ -5813,7 +5810,7 @@
         <v>43830</v>
       </c>
       <c r="I146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -5821,7 +5818,7 @@
         <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C147" t="s">
         <v>139</v>
@@ -5842,7 +5839,7 @@
         <v>43830</v>
       </c>
       <c r="I147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -5850,7 +5847,7 @@
         <v>187</v>
       </c>
       <c r="B148" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C148" t="s">
         <v>141</v>
@@ -5871,7 +5868,7 @@
         <v>43830</v>
       </c>
       <c r="I148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -5879,7 +5876,7 @@
         <v>187</v>
       </c>
       <c r="B149" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C149" t="s">
         <v>143</v>
@@ -5900,7 +5897,7 @@
         <v>43830</v>
       </c>
       <c r="I149" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -5908,7 +5905,7 @@
         <v>187</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C150" t="s">
         <v>145</v>
@@ -5929,7 +5926,7 @@
         <v>43830</v>
       </c>
       <c r="I150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -5937,7 +5934,7 @@
         <v>187</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" t="s">
         <v>147</v>
@@ -5958,7 +5955,7 @@
         <v>43830</v>
       </c>
       <c r="I151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -5966,7 +5963,7 @@
         <v>187</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C152" t="s">
         <v>149</v>
@@ -5987,7 +5984,7 @@
         <v>43830</v>
       </c>
       <c r="I152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -5995,7 +5992,7 @@
         <v>187</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
         <v>150</v>
@@ -6016,7 +6013,7 @@
         <v>43830</v>
       </c>
       <c r="I153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -6024,7 +6021,7 @@
         <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
         <v>152</v>
@@ -6045,7 +6042,7 @@
         <v>43830</v>
       </c>
       <c r="I154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -6053,7 +6050,7 @@
         <v>187</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
         <v>154</v>
@@ -6074,7 +6071,7 @@
         <v>43830</v>
       </c>
       <c r="I155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -6082,7 +6079,7 @@
         <v>187</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C156" t="s">
         <v>155</v>
@@ -6103,7 +6100,7 @@
         <v>43830</v>
       </c>
       <c r="I156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -6111,7 +6108,7 @@
         <v>187</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
         <v>157</v>
@@ -6132,7 +6129,7 @@
         <v>43830</v>
       </c>
       <c r="I157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -6140,7 +6137,7 @@
         <v>106</v>
       </c>
       <c r="B158" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C158" t="s">
         <v>107</v>
@@ -6161,7 +6158,7 @@
         <v>43830</v>
       </c>
       <c r="I158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -6169,7 +6166,7 @@
         <v>106</v>
       </c>
       <c r="B159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C159" t="s">
         <v>109</v>
@@ -6190,7 +6187,7 @@
         <v>43830</v>
       </c>
       <c r="I159" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -6198,7 +6195,7 @@
         <v>106</v>
       </c>
       <c r="B160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
         <v>111</v>
@@ -6219,7 +6216,7 @@
         <v>43830</v>
       </c>
       <c r="I160" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -6227,7 +6224,7 @@
         <v>106</v>
       </c>
       <c r="B161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
         <v>113</v>
@@ -6248,7 +6245,7 @@
         <v>43830</v>
       </c>
       <c r="I161" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -6256,7 +6253,7 @@
         <v>106</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C162" t="s">
         <v>115</v>
@@ -6277,7 +6274,7 @@
         <v>43830</v>
       </c>
       <c r="I162" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -6285,7 +6282,7 @@
         <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C163" t="s">
         <v>117</v>
@@ -6306,7 +6303,7 @@
         <v>43830</v>
       </c>
       <c r="I163" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -6314,7 +6311,7 @@
         <v>106</v>
       </c>
       <c r="B164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" t="s">
         <v>119</v>
@@ -6335,7 +6332,7 @@
         <v>43830</v>
       </c>
       <c r="I164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -6343,7 +6340,7 @@
         <v>106</v>
       </c>
       <c r="B165" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C165" t="s">
         <v>121</v>
@@ -6364,7 +6361,7 @@
         <v>43830</v>
       </c>
       <c r="I165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -6372,7 +6369,7 @@
         <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" t="s">
         <v>123</v>
@@ -6393,7 +6390,7 @@
         <v>43830</v>
       </c>
       <c r="I166" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -6401,7 +6398,7 @@
         <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" t="s">
         <v>125</v>
@@ -6422,7 +6419,7 @@
         <v>43830</v>
       </c>
       <c r="I167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -6430,7 +6427,7 @@
         <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C168" t="s">
         <v>127</v>
@@ -6451,7 +6448,7 @@
         <v>43830</v>
       </c>
       <c r="I168" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -6459,7 +6456,7 @@
         <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
         <v>129</v>
@@ -6480,7 +6477,7 @@
         <v>43830</v>
       </c>
       <c r="I169" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -6488,7 +6485,7 @@
         <v>106</v>
       </c>
       <c r="B170" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
         <v>131</v>
@@ -6509,7 +6506,7 @@
         <v>43830</v>
       </c>
       <c r="I170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -6517,7 +6514,7 @@
         <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C171" t="s">
         <v>133</v>
@@ -6538,7 +6535,7 @@
         <v>43830</v>
       </c>
       <c r="I171" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -6546,7 +6543,7 @@
         <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
         <v>100</v>
@@ -6567,7 +6564,7 @@
         <v>43830</v>
       </c>
       <c r="I172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -6575,7 +6572,7 @@
         <v>99</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C173" t="s">
         <v>102</v>
@@ -6596,7 +6593,7 @@
         <v>43830</v>
       </c>
       <c r="I173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -6604,7 +6601,7 @@
         <v>99</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C174" t="s">
         <v>104</v>
@@ -6625,7 +6622,7 @@
         <v>43830</v>
       </c>
       <c r="I174" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -6633,7 +6630,7 @@
         <v>93</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C175" t="s">
         <v>94</v>
@@ -6654,7 +6651,7 @@
         <v>43830</v>
       </c>
       <c r="I175" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -6662,7 +6659,7 @@
         <v>93</v>
       </c>
       <c r="B176" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -6683,7 +6680,7 @@
         <v>43830</v>
       </c>
       <c r="I176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -6691,7 +6688,7 @@
         <v>93</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
         <v>206</v>
@@ -6712,7 +6709,7 @@
         <v>43830</v>
       </c>
       <c r="I177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -6720,7 +6717,7 @@
         <v>93</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -6741,7 +6738,7 @@
         <v>43830</v>
       </c>
       <c r="I178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -6749,13 +6746,13 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E179">
         <v>14189</v>
@@ -6770,7 +6767,7 @@
         <v>43465</v>
       </c>
       <c r="I179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -6778,13 +6775,13 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E180">
         <v>8905</v>
@@ -6799,7 +6796,7 @@
         <v>43465</v>
       </c>
       <c r="I180" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -6807,13 +6804,13 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E181">
         <v>14860</v>
@@ -6828,7 +6825,7 @@
         <v>43465</v>
       </c>
       <c r="I181" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -6836,13 +6833,13 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E182">
         <v>12702</v>
@@ -6857,7 +6854,7 @@
         <v>43465</v>
       </c>
       <c r="I182" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -6865,13 +6862,13 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E183">
         <v>20361</v>
@@ -6886,7 +6883,7 @@
         <v>43465</v>
       </c>
       <c r="I183" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -6894,13 +6891,13 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C184" t="s">
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E184">
         <v>12634</v>
@@ -6915,7 +6912,7 @@
         <v>43465</v>
       </c>
       <c r="I184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -6923,13 +6920,13 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E185">
         <v>6602</v>
@@ -6944,7 +6941,7 @@
         <v>43465</v>
       </c>
       <c r="I185" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -6952,13 +6949,13 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E186">
         <v>21280</v>
@@ -6973,7 +6970,7 @@
         <v>43465</v>
       </c>
       <c r="I186" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -6981,13 +6978,13 @@
         <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E187">
         <v>9118</v>
@@ -7002,7 +6999,7 @@
         <v>43465</v>
       </c>
       <c r="I187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -7010,13 +7007,13 @@
         <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E188">
         <v>18629</v>
@@ -7031,7 +7028,7 @@
         <v>43465</v>
       </c>
       <c r="I188" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -7039,13 +7036,13 @@
         <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E189">
         <v>4794</v>
@@ -7060,7 +7057,7 @@
         <v>43465</v>
       </c>
       <c r="I189" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -7068,13 +7065,13 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E190">
         <v>31658</v>
@@ -7089,7 +7086,7 @@
         <v>43465</v>
       </c>
       <c r="I190" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -7097,13 +7094,13 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C191" t="s">
         <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E191">
         <v>11445</v>
@@ -7118,7 +7115,7 @@
         <v>43465</v>
       </c>
       <c r="I191" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -7126,7 +7123,7 @@
         <v>93</v>
       </c>
       <c r="B192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C192" t="s">
         <v>94</v>
@@ -7147,7 +7144,7 @@
         <v>43465</v>
       </c>
       <c r="I192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -7155,7 +7152,7 @@
         <v>54</v>
       </c>
       <c r="B193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C193" t="s">
         <v>57</v>
@@ -7176,7 +7173,7 @@
         <v>43465</v>
       </c>
       <c r="I193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -7184,7 +7181,7 @@
         <v>54</v>
       </c>
       <c r="B194" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C194" t="s">
         <v>89</v>
@@ -7205,7 +7202,7 @@
         <v>43465</v>
       </c>
       <c r="I194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -7213,7 +7210,7 @@
         <v>54</v>
       </c>
       <c r="B195" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C195" t="s">
         <v>88</v>
@@ -7234,7 +7231,7 @@
         <v>43465</v>
       </c>
       <c r="I195" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -7242,7 +7239,7 @@
         <v>54</v>
       </c>
       <c r="B196" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C196" t="s">
         <v>62</v>
@@ -7263,7 +7260,7 @@
         <v>43465</v>
       </c>
       <c r="I196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -7271,7 +7268,7 @@
         <v>54</v>
       </c>
       <c r="B197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -7292,7 +7289,7 @@
         <v>43465</v>
       </c>
       <c r="I197" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -7300,7 +7297,7 @@
         <v>54</v>
       </c>
       <c r="B198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C198" t="s">
         <v>64</v>
@@ -7321,7 +7318,7 @@
         <v>43465</v>
       </c>
       <c r="I198" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -7329,7 +7326,7 @@
         <v>54</v>
       </c>
       <c r="B199" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C199" t="s">
         <v>66</v>
@@ -7350,7 +7347,7 @@
         <v>43465</v>
       </c>
       <c r="I199" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -7358,7 +7355,7 @@
         <v>54</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C200" t="s">
         <v>170</v>
@@ -7379,7 +7376,7 @@
         <v>43465</v>
       </c>
       <c r="I200" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -7387,7 +7384,7 @@
         <v>54</v>
       </c>
       <c r="B201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C201" t="s">
         <v>171</v>
@@ -7408,7 +7405,7 @@
         <v>43465</v>
       </c>
       <c r="I201" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -7416,7 +7413,7 @@
         <v>54</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C202" t="s">
         <v>72</v>
@@ -7437,7 +7434,7 @@
         <v>43465</v>
       </c>
       <c r="I202" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -7445,7 +7442,7 @@
         <v>54</v>
       </c>
       <c r="B203" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C203" t="s">
         <v>188</v>
@@ -7466,7 +7463,7 @@
         <v>43465</v>
       </c>
       <c r="I203" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -7474,7 +7471,7 @@
         <v>54</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C204" t="s">
         <v>189</v>
@@ -7495,7 +7492,7 @@
         <v>43465</v>
       </c>
       <c r="I204" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -7503,7 +7500,7 @@
         <v>54</v>
       </c>
       <c r="B205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C205" t="s">
         <v>87</v>
@@ -7524,7 +7521,7 @@
         <v>43465</v>
       </c>
       <c r="I205" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -7532,7 +7529,7 @@
         <v>54</v>
       </c>
       <c r="B206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C206" t="s">
         <v>76</v>
@@ -7553,7 +7550,7 @@
         <v>43465</v>
       </c>
       <c r="I206" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -7561,7 +7558,7 @@
         <v>54</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C207" t="s">
         <v>78</v>
@@ -7582,7 +7579,7 @@
         <v>43465</v>
       </c>
       <c r="I207" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -7590,7 +7587,7 @@
         <v>54</v>
       </c>
       <c r="B208" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C208" t="s">
         <v>86</v>
@@ -7611,7 +7608,7 @@
         <v>43465</v>
       </c>
       <c r="I208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7619,7 +7616,7 @@
         <v>54</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C209" t="s">
         <v>190</v>
@@ -7640,7 +7637,7 @@
         <v>43465</v>
       </c>
       <c r="I209" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -7648,7 +7645,7 @@
         <v>54</v>
       </c>
       <c r="B210" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C210" t="s">
         <v>191</v>
@@ -7669,7 +7666,7 @@
         <v>43465</v>
       </c>
       <c r="I210" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -7677,7 +7674,7 @@
         <v>54</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C211" t="s">
         <v>192</v>
@@ -7698,7 +7695,7 @@
         <v>43465</v>
       </c>
       <c r="I211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -7706,7 +7703,7 @@
         <v>54</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C212" t="s">
         <v>59</v>
@@ -7727,7 +7724,7 @@
         <v>43465</v>
       </c>
       <c r="I212" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -7735,7 +7732,7 @@
         <v>54</v>
       </c>
       <c r="B213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C213" t="s">
         <v>80</v>
@@ -7756,7 +7753,7 @@
         <v>43465</v>
       </c>
       <c r="I213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -7764,7 +7761,7 @@
         <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C214" t="s">
         <v>91</v>
@@ -7785,7 +7782,7 @@
         <v>43465</v>
       </c>
       <c r="I214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -7793,7 +7790,7 @@
         <v>54</v>
       </c>
       <c r="B215" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C215" t="s">
         <v>60</v>
@@ -7814,7 +7811,7 @@
         <v>43465</v>
       </c>
       <c r="I215" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -7822,7 +7819,7 @@
         <v>35</v>
       </c>
       <c r="B216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C216" t="s">
         <v>56</v>
@@ -7843,7 +7840,7 @@
         <v>43465</v>
       </c>
       <c r="I216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -7851,7 +7848,7 @@
         <v>135</v>
       </c>
       <c r="B217" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C217" t="s">
         <v>147</v>
@@ -7872,7 +7869,7 @@
         <v>43465</v>
       </c>
       <c r="I217" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -7880,7 +7877,7 @@
         <v>135</v>
       </c>
       <c r="B218" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C218" t="s">
         <v>139</v>
@@ -7901,7 +7898,7 @@
         <v>43465</v>
       </c>
       <c r="I218" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7909,7 +7906,7 @@
         <v>135</v>
       </c>
       <c r="B219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C219" t="s">
         <v>143</v>
@@ -7930,7 +7927,7 @@
         <v>43465</v>
       </c>
       <c r="I219" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -7938,7 +7935,7 @@
         <v>135</v>
       </c>
       <c r="B220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C220" t="s">
         <v>141</v>
@@ -7959,7 +7956,7 @@
         <v>43465</v>
       </c>
       <c r="I220" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -7967,7 +7964,7 @@
         <v>135</v>
       </c>
       <c r="B221" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C221" t="s">
         <v>193</v>
@@ -7988,7 +7985,7 @@
         <v>43465</v>
       </c>
       <c r="I221" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7996,7 +7993,7 @@
         <v>135</v>
       </c>
       <c r="B222" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C222" t="s">
         <v>194</v>
@@ -8017,7 +8014,7 @@
         <v>43465</v>
       </c>
       <c r="I222" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -8025,7 +8022,7 @@
         <v>135</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C223" t="s">
         <v>137</v>
@@ -8046,7 +8043,7 @@
         <v>43465</v>
       </c>
       <c r="I223" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -8054,7 +8051,7 @@
         <v>135</v>
       </c>
       <c r="B224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C224" t="s">
         <v>155</v>
@@ -8075,7 +8072,7 @@
         <v>43465</v>
       </c>
       <c r="I224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -8083,7 +8080,7 @@
         <v>135</v>
       </c>
       <c r="B225" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C225" t="s">
         <v>195</v>
@@ -8104,7 +8101,7 @@
         <v>43465</v>
       </c>
       <c r="I225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -8112,7 +8109,7 @@
         <v>135</v>
       </c>
       <c r="B226" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s">
         <v>196</v>
@@ -8133,7 +8130,7 @@
         <v>43465</v>
       </c>
       <c r="I226" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -8141,7 +8138,7 @@
         <v>135</v>
       </c>
       <c r="B227" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C227" t="s">
         <v>197</v>
@@ -8162,7 +8159,7 @@
         <v>43465</v>
       </c>
       <c r="I227" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -8170,7 +8167,7 @@
         <v>135</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C228" t="s">
         <v>198</v>
@@ -8191,7 +8188,7 @@
         <v>43465</v>
       </c>
       <c r="I228" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -8199,7 +8196,7 @@
         <v>135</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C229" t="s">
         <v>150</v>
@@ -8220,7 +8217,7 @@
         <v>43465</v>
       </c>
       <c r="I229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -8228,7 +8225,7 @@
         <v>135</v>
       </c>
       <c r="B230" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C230" t="s">
         <v>154</v>
@@ -8249,7 +8246,7 @@
         <v>43465</v>
       </c>
       <c r="I230" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -8257,7 +8254,7 @@
         <v>135</v>
       </c>
       <c r="B231" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C231" t="s">
         <v>145</v>
@@ -8278,7 +8275,7 @@
         <v>43465</v>
       </c>
       <c r="I231" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -8286,7 +8283,7 @@
         <v>19</v>
       </c>
       <c r="B232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C232" t="s">
         <v>20</v>
@@ -8307,7 +8304,7 @@
         <v>43465</v>
       </c>
       <c r="I232" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -8315,7 +8312,7 @@
         <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C233" t="s">
         <v>180</v>
@@ -8336,7 +8333,7 @@
         <v>43465</v>
       </c>
       <c r="I233" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -8344,7 +8341,7 @@
         <v>19</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C234" t="s">
         <v>23</v>
@@ -8365,7 +8362,7 @@
         <v>43465</v>
       </c>
       <c r="I234" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -8373,7 +8370,7 @@
         <v>19</v>
       </c>
       <c r="B235" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -8394,7 +8391,7 @@
         <v>43465</v>
       </c>
       <c r="I235" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -8402,7 +8399,7 @@
         <v>19</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
@@ -8423,7 +8420,7 @@
         <v>43465</v>
       </c>
       <c r="I236" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -8431,7 +8428,7 @@
         <v>19</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -8452,7 +8449,7 @@
         <v>43465</v>
       </c>
       <c r="I237" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -8460,7 +8457,7 @@
         <v>19</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
         <v>31</v>
@@ -8481,7 +8478,7 @@
         <v>43465</v>
       </c>
       <c r="I238" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -8489,7 +8486,7 @@
         <v>19</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C239" t="s">
         <v>33</v>
@@ -8510,7 +8507,7 @@
         <v>43465</v>
       </c>
       <c r="I239" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -8518,7 +8515,7 @@
         <v>99</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C240" t="s">
         <v>56</v>
@@ -8539,7 +8536,7 @@
         <v>43465</v>
       </c>
       <c r="I240" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -8547,7 +8544,7 @@
         <v>106</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C241" t="s">
         <v>109</v>
@@ -8568,7 +8565,7 @@
         <v>43465</v>
       </c>
       <c r="I241" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -8576,7 +8573,7 @@
         <v>106</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
         <v>123</v>
@@ -8597,7 +8594,7 @@
         <v>43465</v>
       </c>
       <c r="I242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -8605,7 +8602,7 @@
         <v>106</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
         <v>125</v>
@@ -8626,7 +8623,7 @@
         <v>43465</v>
       </c>
       <c r="I243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -8634,7 +8631,7 @@
         <v>106</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
         <v>129</v>
@@ -8655,7 +8652,7 @@
         <v>43465</v>
       </c>
       <c r="I244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -8663,7 +8660,7 @@
         <v>106</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C245" t="s">
         <v>121</v>
@@ -8684,7 +8681,7 @@
         <v>43465</v>
       </c>
       <c r="I245" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -8692,7 +8689,7 @@
         <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
         <v>199</v>
@@ -8713,7 +8710,7 @@
         <v>43878</v>
       </c>
       <c r="I246" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -8721,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -8742,7 +8739,7 @@
         <v>43878</v>
       </c>
       <c r="I247" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -8750,13 +8747,13 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E248">
         <v>21270</v>
@@ -8771,7 +8768,7 @@
         <v>43878</v>
       </c>
       <c r="I248" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -8779,7 +8776,7 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" t="s">
         <v>200</v>
@@ -8800,7 +8797,7 @@
         <v>43878</v>
       </c>
       <c r="I249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -8808,7 +8805,7 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" t="s">
         <v>201</v>
@@ -8829,7 +8826,7 @@
         <v>43878</v>
       </c>
       <c r="I250" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -8837,7 +8834,7 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C251" t="s">
         <v>202</v>
@@ -8858,7 +8855,7 @@
         <v>43878</v>
       </c>
       <c r="I251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -8866,7 +8863,7 @@
         <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C252" t="s">
         <v>203</v>
@@ -8887,7 +8884,7 @@
         <v>43878</v>
       </c>
       <c r="I252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -8895,7 +8892,7 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
@@ -8916,7 +8913,7 @@
         <v>43878</v>
       </c>
       <c r="I253" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -8924,7 +8921,7 @@
         <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C254" t="s">
         <v>204</v>
@@ -8945,7 +8942,7 @@
         <v>43878</v>
       </c>
       <c r="I254" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -8953,7 +8950,7 @@
         <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C255" t="s">
         <v>15</v>
@@ -8974,7 +8971,7 @@
         <v>43878</v>
       </c>
       <c r="I255" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -8982,7 +8979,7 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C256" t="s">
         <v>16</v>
@@ -9003,7 +9000,7 @@
         <v>43878</v>
       </c>
       <c r="I256" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -9011,7 +9008,7 @@
         <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C257" t="s">
         <v>17</v>
@@ -9032,7 +9029,7 @@
         <v>43878</v>
       </c>
       <c r="I257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -9040,7 +9037,7 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C258" t="s">
         <v>205</v>
@@ -9061,7 +9058,7 @@
         <v>43878</v>
       </c>
       <c r="I258" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -9069,7 +9066,7 @@
         <v>93</v>
       </c>
       <c r="B259" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" t="s">
         <v>206</v>
@@ -9090,7 +9087,7 @@
         <v>43878</v>
       </c>
       <c r="I259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -9098,7 +9095,7 @@
         <v>54</v>
       </c>
       <c r="B260" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C260" t="s">
         <v>207</v>
@@ -9119,7 +9116,7 @@
         <v>43878</v>
       </c>
       <c r="I260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -9127,7 +9124,7 @@
         <v>54</v>
       </c>
       <c r="B261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C261" t="s">
         <v>208</v>
@@ -9148,7 +9145,7 @@
         <v>43878</v>
       </c>
       <c r="I261" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -9156,7 +9153,7 @@
         <v>54</v>
       </c>
       <c r="B262" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C262" t="s">
         <v>209</v>
@@ -9177,7 +9174,7 @@
         <v>43878</v>
       </c>
       <c r="I262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -9185,7 +9182,7 @@
         <v>54</v>
       </c>
       <c r="B263" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C263" t="s">
         <v>210</v>
@@ -9206,7 +9203,7 @@
         <v>43878</v>
       </c>
       <c r="I263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -9214,7 +9211,7 @@
         <v>54</v>
       </c>
       <c r="B264" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C264" t="s">
         <v>211</v>
@@ -9235,7 +9232,7 @@
         <v>43878</v>
       </c>
       <c r="I264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -9243,7 +9240,7 @@
         <v>54</v>
       </c>
       <c r="B265" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C265" t="s">
         <v>212</v>
@@ -9264,7 +9261,7 @@
         <v>43878</v>
       </c>
       <c r="I265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -9272,7 +9269,7 @@
         <v>54</v>
       </c>
       <c r="B266" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C266" t="s">
         <v>213</v>
@@ -9293,7 +9290,7 @@
         <v>43878</v>
       </c>
       <c r="I266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,7 +9298,7 @@
         <v>54</v>
       </c>
       <c r="B267" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C267" t="s">
         <v>214</v>
@@ -9322,7 +9319,7 @@
         <v>43878</v>
       </c>
       <c r="I267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -9330,7 +9327,7 @@
         <v>54</v>
       </c>
       <c r="B268" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C268" t="s">
         <v>215</v>
@@ -9351,7 +9348,7 @@
         <v>43878</v>
       </c>
       <c r="I268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -9359,7 +9356,7 @@
         <v>54</v>
       </c>
       <c r="B269" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C269" t="s">
         <v>66</v>
@@ -9380,7 +9377,7 @@
         <v>43878</v>
       </c>
       <c r="I269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -9388,7 +9385,7 @@
         <v>54</v>
       </c>
       <c r="B270" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C270" t="s">
         <v>216</v>
@@ -9409,7 +9406,7 @@
         <v>43878</v>
       </c>
       <c r="I270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -9417,7 +9414,7 @@
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C271" t="s">
         <v>217</v>
@@ -9438,7 +9435,7 @@
         <v>43878</v>
       </c>
       <c r="I271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -9446,7 +9443,7 @@
         <v>54</v>
       </c>
       <c r="B272" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C272" t="s">
         <v>218</v>
@@ -9467,7 +9464,7 @@
         <v>43878</v>
       </c>
       <c r="I272" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -9475,7 +9472,7 @@
         <v>54</v>
       </c>
       <c r="B273" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C273" t="s">
         <v>219</v>
@@ -9496,7 +9493,7 @@
         <v>43878</v>
       </c>
       <c r="I273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -9504,7 +9501,7 @@
         <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C274" t="s">
         <v>220</v>
@@ -9525,7 +9522,7 @@
         <v>43878</v>
       </c>
       <c r="I274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -9533,7 +9530,7 @@
         <v>54</v>
       </c>
       <c r="B275" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C275" t="s">
         <v>221</v>
@@ -9554,7 +9551,7 @@
         <v>43878</v>
       </c>
       <c r="I275" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -9562,7 +9559,7 @@
         <v>54</v>
       </c>
       <c r="B276" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C276" t="s">
         <v>222</v>
@@ -9583,7 +9580,7 @@
         <v>43878</v>
       </c>
       <c r="I276" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -9591,7 +9588,7 @@
         <v>54</v>
       </c>
       <c r="B277" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C277" t="s">
         <v>223</v>
@@ -9612,7 +9609,7 @@
         <v>43878</v>
       </c>
       <c r="I277" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -9620,7 +9617,7 @@
         <v>54</v>
       </c>
       <c r="B278" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C278" t="s">
         <v>224</v>
@@ -9641,7 +9638,7 @@
         <v>43878</v>
       </c>
       <c r="I278" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -9649,7 +9646,7 @@
         <v>54</v>
       </c>
       <c r="B279" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C279" t="s">
         <v>225</v>
@@ -9670,7 +9667,7 @@
         <v>43878</v>
       </c>
       <c r="I279" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -9678,7 +9675,7 @@
         <v>54</v>
       </c>
       <c r="B280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C280" t="s">
         <v>226</v>
@@ -9699,7 +9696,7 @@
         <v>43878</v>
       </c>
       <c r="I280" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -9707,7 +9704,7 @@
         <v>54</v>
       </c>
       <c r="B281" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C281" t="s">
         <v>227</v>
@@ -9728,7 +9725,7 @@
         <v>43878</v>
       </c>
       <c r="I281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -9736,7 +9733,7 @@
         <v>35</v>
       </c>
       <c r="B282" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C282" t="s">
         <v>52</v>
@@ -9757,7 +9754,7 @@
         <v>43878</v>
       </c>
       <c r="I282" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -9765,7 +9762,7 @@
         <v>35</v>
       </c>
       <c r="B283" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C283" t="s">
         <v>48</v>
@@ -9786,7 +9783,7 @@
         <v>43878</v>
       </c>
       <c r="I283" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -9794,7 +9791,7 @@
         <v>35</v>
       </c>
       <c r="B284" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C284" t="s">
         <v>36</v>
@@ -9815,7 +9812,7 @@
         <v>43878</v>
       </c>
       <c r="I284" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -9823,7 +9820,7 @@
         <v>35</v>
       </c>
       <c r="B285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C285" t="s">
         <v>50</v>
@@ -9844,7 +9841,7 @@
         <v>43878</v>
       </c>
       <c r="I285" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -9852,7 +9849,7 @@
         <v>35</v>
       </c>
       <c r="B286" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C286" t="s">
         <v>228</v>
@@ -9873,7 +9870,7 @@
         <v>43878</v>
       </c>
       <c r="I286" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -9881,7 +9878,7 @@
         <v>35</v>
       </c>
       <c r="B287" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C287" t="s">
         <v>44</v>
@@ -9902,7 +9899,7 @@
         <v>43878</v>
       </c>
       <c r="I287" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -9910,7 +9907,7 @@
         <v>35</v>
       </c>
       <c r="B288" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C288" t="s">
         <v>229</v>
@@ -9931,7 +9928,7 @@
         <v>43878</v>
       </c>
       <c r="I288" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -9939,7 +9936,7 @@
         <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C289" t="s">
         <v>40</v>
@@ -9960,7 +9957,7 @@
         <v>43878</v>
       </c>
       <c r="I289" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -9968,7 +9965,7 @@
         <v>35</v>
       </c>
       <c r="B290" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C290" t="s">
         <v>46</v>
@@ -9989,7 +9986,7 @@
         <v>43878</v>
       </c>
       <c r="I290" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -9997,7 +9994,7 @@
         <v>135</v>
       </c>
       <c r="B291" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C291" t="s">
         <v>147</v>
@@ -10018,7 +10015,7 @@
         <v>43878</v>
       </c>
       <c r="I291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -10026,7 +10023,7 @@
         <v>135</v>
       </c>
       <c r="B292" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C292" t="s">
         <v>139</v>
@@ -10047,7 +10044,7 @@
         <v>43878</v>
       </c>
       <c r="I292" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -10055,7 +10052,7 @@
         <v>135</v>
       </c>
       <c r="B293" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C293" t="s">
         <v>143</v>
@@ -10076,7 +10073,7 @@
         <v>43878</v>
       </c>
       <c r="I293" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -10084,7 +10081,7 @@
         <v>135</v>
       </c>
       <c r="B294" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C294" t="s">
         <v>230</v>
@@ -10105,7 +10102,7 @@
         <v>43878</v>
       </c>
       <c r="I294" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -10113,7 +10110,7 @@
         <v>135</v>
       </c>
       <c r="B295" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C295" t="s">
         <v>141</v>
@@ -10134,7 +10131,7 @@
         <v>43878</v>
       </c>
       <c r="I295" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -10142,7 +10139,7 @@
         <v>135</v>
       </c>
       <c r="B296" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C296" t="s">
         <v>152</v>
@@ -10163,7 +10160,7 @@
         <v>43878</v>
       </c>
       <c r="I296" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -10171,7 +10168,7 @@
         <v>135</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C297" t="s">
         <v>231</v>
@@ -10192,7 +10189,7 @@
         <v>43878</v>
       </c>
       <c r="I297" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -10200,7 +10197,7 @@
         <v>135</v>
       </c>
       <c r="B298" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C298" t="s">
         <v>232</v>
@@ -10221,7 +10218,7 @@
         <v>43878</v>
       </c>
       <c r="I298" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -10229,7 +10226,7 @@
         <v>135</v>
       </c>
       <c r="B299" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C299" t="s">
         <v>155</v>
@@ -10250,7 +10247,7 @@
         <v>43878</v>
       </c>
       <c r="I299" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -10258,7 +10255,7 @@
         <v>135</v>
       </c>
       <c r="B300" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C300" t="s">
         <v>233</v>
@@ -10279,7 +10276,7 @@
         <v>43878</v>
       </c>
       <c r="I300" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -10287,7 +10284,7 @@
         <v>135</v>
       </c>
       <c r="B301" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C301" t="s">
         <v>234</v>
@@ -10308,7 +10305,7 @@
         <v>43878</v>
       </c>
       <c r="I301" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -10316,7 +10313,7 @@
         <v>135</v>
       </c>
       <c r="B302" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C302" t="s">
         <v>235</v>
@@ -10337,7 +10334,7 @@
         <v>43878</v>
       </c>
       <c r="I302" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -10345,7 +10342,7 @@
         <v>135</v>
       </c>
       <c r="B303" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C303" t="s">
         <v>236</v>
@@ -10366,7 +10363,7 @@
         <v>43878</v>
       </c>
       <c r="I303" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -10374,7 +10371,7 @@
         <v>135</v>
       </c>
       <c r="B304" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C304" t="s">
         <v>150</v>
@@ -10395,7 +10392,7 @@
         <v>43878</v>
       </c>
       <c r="I304" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -10403,7 +10400,7 @@
         <v>135</v>
       </c>
       <c r="B305" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C305" t="s">
         <v>154</v>
@@ -10424,7 +10421,7 @@
         <v>43878</v>
       </c>
       <c r="I305" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -10432,7 +10429,7 @@
         <v>135</v>
       </c>
       <c r="B306" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C306" t="s">
         <v>145</v>
@@ -10453,7 +10450,7 @@
         <v>43878</v>
       </c>
       <c r="I306" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -10461,7 +10458,7 @@
         <v>19</v>
       </c>
       <c r="B307" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C307" t="s">
         <v>179</v>
@@ -10482,7 +10479,7 @@
         <v>43878</v>
       </c>
       <c r="I307" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -10490,7 +10487,7 @@
         <v>19</v>
       </c>
       <c r="B308" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C308" t="s">
         <v>180</v>
@@ -10511,7 +10508,7 @@
         <v>43878</v>
       </c>
       <c r="I308" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -10519,7 +10516,7 @@
         <v>19</v>
       </c>
       <c r="B309" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C309" t="s">
         <v>181</v>
@@ -10540,7 +10537,7 @@
         <v>43878</v>
       </c>
       <c r="I309" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -10548,7 +10545,7 @@
         <v>19</v>
       </c>
       <c r="B310" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C310" t="s">
         <v>182</v>
@@ -10569,7 +10566,7 @@
         <v>43878</v>
       </c>
       <c r="I310" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -10577,7 +10574,7 @@
         <v>19</v>
       </c>
       <c r="B311" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C311" t="s">
         <v>183</v>
@@ -10598,7 +10595,7 @@
         <v>43878</v>
       </c>
       <c r="I311" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -10606,7 +10603,7 @@
         <v>19</v>
       </c>
       <c r="B312" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C312" t="s">
         <v>184</v>
@@ -10627,7 +10624,7 @@
         <v>43878</v>
       </c>
       <c r="I312" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -10635,7 +10632,7 @@
         <v>19</v>
       </c>
       <c r="B313" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C313" t="s">
         <v>185</v>
@@ -10656,7 +10653,7 @@
         <v>43878</v>
       </c>
       <c r="I313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -10664,7 +10661,7 @@
         <v>19</v>
       </c>
       <c r="B314" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C314" t="s">
         <v>186</v>
@@ -10685,7 +10682,7 @@
         <v>43878</v>
       </c>
       <c r="I314" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -10693,7 +10690,7 @@
         <v>99</v>
       </c>
       <c r="B315" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C315" t="s">
         <v>100</v>
@@ -10714,7 +10711,7 @@
         <v>43878</v>
       </c>
       <c r="I315" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -10722,7 +10719,7 @@
         <v>99</v>
       </c>
       <c r="B316" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C316" t="s">
         <v>102</v>
@@ -10743,7 +10740,7 @@
         <v>43878</v>
       </c>
       <c r="I316" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -10751,7 +10748,7 @@
         <v>99</v>
       </c>
       <c r="B317" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C317" t="s">
         <v>104</v>
@@ -10772,7 +10769,7 @@
         <v>43878</v>
       </c>
       <c r="I317" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,7 +10777,7 @@
         <v>106</v>
       </c>
       <c r="B318" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C318" t="s">
         <v>107</v>
@@ -10801,7 +10798,7 @@
         <v>43878</v>
       </c>
       <c r="I318" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10809,7 +10806,7 @@
         <v>106</v>
       </c>
       <c r="B319" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C319" t="s">
         <v>109</v>
@@ -10830,7 +10827,7 @@
         <v>43878</v>
       </c>
       <c r="I319" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -10838,7 +10835,7 @@
         <v>106</v>
       </c>
       <c r="B320" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C320" t="s">
         <v>111</v>
@@ -10859,7 +10856,7 @@
         <v>43878</v>
       </c>
       <c r="I320" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -10867,7 +10864,7 @@
         <v>106</v>
       </c>
       <c r="B321" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C321" t="s">
         <v>113</v>
@@ -10888,7 +10885,7 @@
         <v>43878</v>
       </c>
       <c r="I321" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -10896,7 +10893,7 @@
         <v>106</v>
       </c>
       <c r="B322" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C322" t="s">
         <v>115</v>
@@ -10917,7 +10914,7 @@
         <v>43878</v>
       </c>
       <c r="I322" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -10925,7 +10922,7 @@
         <v>106</v>
       </c>
       <c r="B323" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C323" t="s">
         <v>117</v>
@@ -10946,7 +10943,7 @@
         <v>43878</v>
       </c>
       <c r="I323" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -10954,7 +10951,7 @@
         <v>106</v>
       </c>
       <c r="B324" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C324" t="s">
         <v>119</v>
@@ -10975,7 +10972,7 @@
         <v>43878</v>
       </c>
       <c r="I324" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -10983,7 +10980,7 @@
         <v>106</v>
       </c>
       <c r="B325" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C325" t="s">
         <v>121</v>
@@ -11004,7 +11001,7 @@
         <v>43878</v>
       </c>
       <c r="I325" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11012,7 +11009,7 @@
         <v>106</v>
       </c>
       <c r="B326" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C326" t="s">
         <v>123</v>
@@ -11033,7 +11030,7 @@
         <v>43878</v>
       </c>
       <c r="I326" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11041,7 +11038,7 @@
         <v>106</v>
       </c>
       <c r="B327" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C327" t="s">
         <v>125</v>
@@ -11062,7 +11059,7 @@
         <v>43878</v>
       </c>
       <c r="I327" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11070,7 +11067,7 @@
         <v>106</v>
       </c>
       <c r="B328" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C328" t="s">
         <v>127</v>
@@ -11091,7 +11088,7 @@
         <v>43878</v>
       </c>
       <c r="I328" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11099,7 +11096,7 @@
         <v>106</v>
       </c>
       <c r="B329" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C329" t="s">
         <v>129</v>
@@ -11120,7 +11117,7 @@
         <v>43878</v>
       </c>
       <c r="I329" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -11128,7 +11125,7 @@
         <v>106</v>
       </c>
       <c r="B330" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C330" t="s">
         <v>131</v>
@@ -11149,7 +11146,7 @@
         <v>43878</v>
       </c>
       <c r="I330" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -11157,7 +11154,7 @@
         <v>106</v>
       </c>
       <c r="B331" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C331" t="s">
         <v>133</v>
@@ -11178,7 +11175,7 @@
         <v>43878</v>
       </c>
       <c r="I331" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -11186,7 +11183,7 @@
         <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C332" t="s">
         <v>199</v>
@@ -11204,7 +11201,7 @@
         <v>44235</v>
       </c>
       <c r="I332" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -11212,7 +11209,7 @@
         <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
@@ -11230,7 +11227,7 @@
         <v>44235</v>
       </c>
       <c r="I333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -11238,13 +11235,13 @@
         <v>5</v>
       </c>
       <c r="B334" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C334" t="s">
         <v>8</v>
       </c>
       <c r="D334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E334" s="2">
         <v>5763.7164000000002</v>
@@ -11259,7 +11256,7 @@
         <v>44235</v>
       </c>
       <c r="I334" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -11267,7 +11264,7 @@
         <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C335" t="s">
         <v>200</v>
@@ -11285,7 +11282,7 @@
         <v>44235</v>
       </c>
       <c r="I335" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -11293,7 +11290,7 @@
         <v>5</v>
       </c>
       <c r="B336" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C336" t="s">
         <v>201</v>
@@ -11311,7 +11308,7 @@
         <v>44235</v>
       </c>
       <c r="I336" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -11319,7 +11316,7 @@
         <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C337" t="s">
         <v>202</v>
@@ -11337,7 +11334,7 @@
         <v>44235</v>
       </c>
       <c r="I337" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -11345,7 +11342,7 @@
         <v>5</v>
       </c>
       <c r="B338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C338" t="s">
         <v>203</v>
@@ -11363,7 +11360,7 @@
         <v>44235</v>
       </c>
       <c r="I338" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -11371,7 +11368,7 @@
         <v>5</v>
       </c>
       <c r="B339" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C339" t="s">
         <v>13</v>
@@ -11389,7 +11386,7 @@
         <v>44235</v>
       </c>
       <c r="I339" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -11397,7 +11394,7 @@
         <v>5</v>
       </c>
       <c r="B340" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C340" t="s">
         <v>204</v>
@@ -11415,7 +11412,7 @@
         <v>44235</v>
       </c>
       <c r="I340" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -11423,7 +11420,7 @@
         <v>5</v>
       </c>
       <c r="B341" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C341" t="s">
         <v>15</v>
@@ -11441,7 +11438,7 @@
         <v>44235</v>
       </c>
       <c r="I341" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -11449,7 +11446,7 @@
         <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C342" t="s">
         <v>16</v>
@@ -11467,7 +11464,7 @@
         <v>44235</v>
       </c>
       <c r="I342" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -11475,7 +11472,7 @@
         <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C343" t="s">
         <v>17</v>
@@ -11493,7 +11490,7 @@
         <v>44235</v>
       </c>
       <c r="I343" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -11501,7 +11498,7 @@
         <v>5</v>
       </c>
       <c r="B344" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C344" t="s">
         <v>205</v>
@@ -11519,7 +11516,7 @@
         <v>44235</v>
       </c>
       <c r="I344" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -11527,7 +11524,7 @@
         <v>93</v>
       </c>
       <c r="B345" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C345" t="s">
         <v>206</v>
@@ -11548,7 +11545,7 @@
         <v>44235</v>
       </c>
       <c r="I345" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -11556,7 +11553,7 @@
         <v>54</v>
       </c>
       <c r="B346" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C346" t="s">
         <v>207</v>
@@ -11574,7 +11571,7 @@
         <v>44235</v>
       </c>
       <c r="I346" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -11582,7 +11579,7 @@
         <v>54</v>
       </c>
       <c r="B347" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C347" t="s">
         <v>208</v>
@@ -11600,7 +11597,7 @@
         <v>44235</v>
       </c>
       <c r="I347" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -11608,7 +11605,7 @@
         <v>54</v>
       </c>
       <c r="B348" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C348" t="s">
         <v>209</v>
@@ -11626,7 +11623,7 @@
         <v>44235</v>
       </c>
       <c r="I348" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -11634,7 +11631,7 @@
         <v>54</v>
       </c>
       <c r="B349" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C349" t="s">
         <v>210</v>
@@ -11652,7 +11649,7 @@
         <v>44235</v>
       </c>
       <c r="I349" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -11660,7 +11657,7 @@
         <v>54</v>
       </c>
       <c r="B350" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C350" t="s">
         <v>211</v>
@@ -11678,7 +11675,7 @@
         <v>44235</v>
       </c>
       <c r="I350" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -11686,7 +11683,7 @@
         <v>54</v>
       </c>
       <c r="B351" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C351" t="s">
         <v>212</v>
@@ -11704,7 +11701,7 @@
         <v>44235</v>
       </c>
       <c r="I351" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -11712,7 +11709,7 @@
         <v>54</v>
       </c>
       <c r="B352" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C352" t="s">
         <v>213</v>
@@ -11730,7 +11727,7 @@
         <v>44235</v>
       </c>
       <c r="I352" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -11738,7 +11735,7 @@
         <v>54</v>
       </c>
       <c r="B353" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C353" t="s">
         <v>214</v>
@@ -11756,7 +11753,7 @@
         <v>44235</v>
       </c>
       <c r="I353" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -11764,7 +11761,7 @@
         <v>54</v>
       </c>
       <c r="B354" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C354" t="s">
         <v>215</v>
@@ -11782,7 +11779,7 @@
         <v>44235</v>
       </c>
       <c r="I354" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -11790,7 +11787,7 @@
         <v>54</v>
       </c>
       <c r="B355" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C355" t="s">
         <v>66</v>
@@ -11811,7 +11808,7 @@
         <v>44235</v>
       </c>
       <c r="I355" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -11819,7 +11816,7 @@
         <v>54</v>
       </c>
       <c r="B356" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C356" t="s">
         <v>216</v>
@@ -11837,7 +11834,7 @@
         <v>44235</v>
       </c>
       <c r="I356" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -11845,7 +11842,7 @@
         <v>54</v>
       </c>
       <c r="B357" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C357" t="s">
         <v>217</v>
@@ -11863,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="I357" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -11871,7 +11868,7 @@
         <v>54</v>
       </c>
       <c r="B358" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C358" t="s">
         <v>218</v>
@@ -11889,7 +11886,7 @@
         <v>44235</v>
       </c>
       <c r="I358" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -11897,7 +11894,7 @@
         <v>54</v>
       </c>
       <c r="B359" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C359" t="s">
         <v>219</v>
@@ -11915,7 +11912,7 @@
         <v>44235</v>
       </c>
       <c r="I359" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -11923,7 +11920,7 @@
         <v>54</v>
       </c>
       <c r="B360" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C360" t="s">
         <v>220</v>
@@ -11941,7 +11938,7 @@
         <v>44235</v>
       </c>
       <c r="I360" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -11949,7 +11946,7 @@
         <v>54</v>
       </c>
       <c r="B361" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C361" t="s">
         <v>221</v>
@@ -11967,7 +11964,7 @@
         <v>44235</v>
       </c>
       <c r="I361" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -11975,7 +11972,7 @@
         <v>54</v>
       </c>
       <c r="B362" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C362" t="s">
         <v>222</v>
@@ -11993,7 +11990,7 @@
         <v>44235</v>
       </c>
       <c r="I362" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -12001,7 +11998,7 @@
         <v>54</v>
       </c>
       <c r="B363" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C363" t="s">
         <v>223</v>
@@ -12019,7 +12016,7 @@
         <v>44235</v>
       </c>
       <c r="I363" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -12027,7 +12024,7 @@
         <v>54</v>
       </c>
       <c r="B364" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C364" t="s">
         <v>224</v>
@@ -12045,7 +12042,7 @@
         <v>44235</v>
       </c>
       <c r="I364" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -12053,7 +12050,7 @@
         <v>54</v>
       </c>
       <c r="B365" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C365" t="s">
         <v>225</v>
@@ -12071,7 +12068,7 @@
         <v>44235</v>
       </c>
       <c r="I365" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -12079,7 +12076,7 @@
         <v>54</v>
       </c>
       <c r="B366" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C366" t="s">
         <v>161</v>
@@ -12097,7 +12094,7 @@
         <v>44235</v>
       </c>
       <c r="I366" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -12105,7 +12102,7 @@
         <v>54</v>
       </c>
       <c r="B367" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C367" t="s">
         <v>226</v>
@@ -12123,7 +12120,7 @@
         <v>44235</v>
       </c>
       <c r="I367" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -12131,7 +12128,7 @@
         <v>54</v>
       </c>
       <c r="B368" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C368" t="s">
         <v>227</v>
@@ -12149,7 +12146,7 @@
         <v>44235</v>
       </c>
       <c r="I368" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -12157,7 +12154,7 @@
         <v>35</v>
       </c>
       <c r="B369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C369" t="s">
         <v>52</v>
@@ -12175,7 +12172,7 @@
         <v>44235</v>
       </c>
       <c r="I369" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -12183,7 +12180,7 @@
         <v>35</v>
       </c>
       <c r="B370" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C370" t="s">
         <v>48</v>
@@ -12201,7 +12198,7 @@
         <v>44235</v>
       </c>
       <c r="I370" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -12209,7 +12206,7 @@
         <v>35</v>
       </c>
       <c r="B371" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C371" t="s">
         <v>36</v>
@@ -12227,7 +12224,7 @@
         <v>44235</v>
       </c>
       <c r="I371" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -12235,7 +12232,7 @@
         <v>35</v>
       </c>
       <c r="B372" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C372" t="s">
         <v>50</v>
@@ -12253,7 +12250,7 @@
         <v>44235</v>
       </c>
       <c r="I372" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -12261,7 +12258,7 @@
         <v>35</v>
       </c>
       <c r="B373" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C373" t="s">
         <v>228</v>
@@ -12279,7 +12276,7 @@
         <v>44235</v>
       </c>
       <c r="I373" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -12287,7 +12284,7 @@
         <v>35</v>
       </c>
       <c r="B374" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C374" t="s">
         <v>44</v>
@@ -12305,7 +12302,7 @@
         <v>44235</v>
       </c>
       <c r="I374" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -12313,7 +12310,7 @@
         <v>35</v>
       </c>
       <c r="B375" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C375" t="s">
         <v>229</v>
@@ -12331,7 +12328,7 @@
         <v>44235</v>
       </c>
       <c r="I375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -12339,7 +12336,7 @@
         <v>35</v>
       </c>
       <c r="B376" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C376" t="s">
         <v>40</v>
@@ -12357,7 +12354,7 @@
         <v>44235</v>
       </c>
       <c r="I376" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -12365,7 +12362,7 @@
         <v>35</v>
       </c>
       <c r="B377" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C377" t="s">
         <v>46</v>
@@ -12383,7 +12380,7 @@
         <v>44235</v>
       </c>
       <c r="I377" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -12391,7 +12388,7 @@
         <v>135</v>
       </c>
       <c r="B378" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C378" t="s">
         <v>147</v>
@@ -12409,7 +12406,7 @@
         <v>44235</v>
       </c>
       <c r="I378" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -12417,7 +12414,7 @@
         <v>135</v>
       </c>
       <c r="B379" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C379" t="s">
         <v>139</v>
@@ -12435,7 +12432,7 @@
         <v>44235</v>
       </c>
       <c r="I379" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -12443,7 +12440,7 @@
         <v>135</v>
       </c>
       <c r="B380" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C380" t="s">
         <v>143</v>
@@ -12461,7 +12458,7 @@
         <v>44235</v>
       </c>
       <c r="I380" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -12469,7 +12466,7 @@
         <v>135</v>
       </c>
       <c r="B381" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C381" t="s">
         <v>230</v>
@@ -12487,7 +12484,7 @@
         <v>44235</v>
       </c>
       <c r="I381" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -12495,7 +12492,7 @@
         <v>135</v>
       </c>
       <c r="B382" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C382" t="s">
         <v>141</v>
@@ -12513,7 +12510,7 @@
         <v>44235</v>
       </c>
       <c r="I382" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -12521,7 +12518,7 @@
         <v>135</v>
       </c>
       <c r="B383" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C383" t="s">
         <v>152</v>
@@ -12539,7 +12536,7 @@
         <v>44235</v>
       </c>
       <c r="I383" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -12547,7 +12544,7 @@
         <v>135</v>
       </c>
       <c r="B384" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C384" t="s">
         <v>231</v>
@@ -12565,7 +12562,7 @@
         <v>44235</v>
       </c>
       <c r="I384" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -12573,7 +12570,7 @@
         <v>135</v>
       </c>
       <c r="B385" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C385" t="s">
         <v>232</v>
@@ -12591,7 +12588,7 @@
         <v>44235</v>
       </c>
       <c r="I385" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -12599,7 +12596,7 @@
         <v>135</v>
       </c>
       <c r="B386" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C386" t="s">
         <v>155</v>
@@ -12617,7 +12614,7 @@
         <v>44235</v>
       </c>
       <c r="I386" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -12625,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B387" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C387" t="s">
         <v>233</v>
@@ -12643,7 +12640,7 @@
         <v>44235</v>
       </c>
       <c r="I387" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -12651,7 +12648,7 @@
         <v>135</v>
       </c>
       <c r="B388" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C388" t="s">
         <v>234</v>
@@ -12669,7 +12666,7 @@
         <v>44235</v>
       </c>
       <c r="I388" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -12677,7 +12674,7 @@
         <v>135</v>
       </c>
       <c r="B389" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C389" t="s">
         <v>235</v>
@@ -12695,7 +12692,7 @@
         <v>44235</v>
       </c>
       <c r="I389" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -12703,7 +12700,7 @@
         <v>135</v>
       </c>
       <c r="B390" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C390" t="s">
         <v>236</v>
@@ -12721,7 +12718,7 @@
         <v>44235</v>
       </c>
       <c r="I390" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -12729,7 +12726,7 @@
         <v>135</v>
       </c>
       <c r="B391" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C391" t="s">
         <v>150</v>
@@ -12747,7 +12744,7 @@
         <v>44235</v>
       </c>
       <c r="I391" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -12755,7 +12752,7 @@
         <v>135</v>
       </c>
       <c r="B392" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C392" t="s">
         <v>154</v>
@@ -12773,7 +12770,7 @@
         <v>44235</v>
       </c>
       <c r="I392" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -12781,7 +12778,7 @@
         <v>135</v>
       </c>
       <c r="B393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C393" t="s">
         <v>145</v>
@@ -12799,7 +12796,7 @@
         <v>44235</v>
       </c>
       <c r="I393" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -12807,7 +12804,7 @@
         <v>19</v>
       </c>
       <c r="B394" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C394" t="s">
         <v>179</v>
@@ -12825,7 +12822,7 @@
         <v>44235</v>
       </c>
       <c r="I394" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -12833,7 +12830,7 @@
         <v>19</v>
       </c>
       <c r="B395" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C395" t="s">
         <v>180</v>
@@ -12854,7 +12851,7 @@
         <v>44235</v>
       </c>
       <c r="I395" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -12862,7 +12859,7 @@
         <v>19</v>
       </c>
       <c r="B396" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C396" t="s">
         <v>181</v>
@@ -12880,7 +12877,7 @@
         <v>44235</v>
       </c>
       <c r="I396" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -12888,7 +12885,7 @@
         <v>19</v>
       </c>
       <c r="B397" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C397" t="s">
         <v>182</v>
@@ -12906,7 +12903,7 @@
         <v>44235</v>
       </c>
       <c r="I397" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -12914,7 +12911,7 @@
         <v>19</v>
       </c>
       <c r="B398" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C398" t="s">
         <v>183</v>
@@ -12932,7 +12929,7 @@
         <v>44235</v>
       </c>
       <c r="I398" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -12940,7 +12937,7 @@
         <v>19</v>
       </c>
       <c r="B399" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C399" t="s">
         <v>184</v>
@@ -12961,7 +12958,7 @@
         <v>44235</v>
       </c>
       <c r="I399" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -12969,7 +12966,7 @@
         <v>19</v>
       </c>
       <c r="B400" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C400" t="s">
         <v>185</v>
@@ -12990,7 +12987,7 @@
         <v>44235</v>
       </c>
       <c r="I400" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -12998,7 +12995,7 @@
         <v>19</v>
       </c>
       <c r="B401" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C401" t="s">
         <v>186</v>
@@ -13016,7 +13013,7 @@
         <v>44235</v>
       </c>
       <c r="I401" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -13024,7 +13021,7 @@
         <v>99</v>
       </c>
       <c r="B402" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C402" t="s">
         <v>100</v>
@@ -13045,7 +13042,7 @@
         <v>44235</v>
       </c>
       <c r="I402" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -13053,7 +13050,7 @@
         <v>99</v>
       </c>
       <c r="B403" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C403" t="s">
         <v>102</v>
@@ -13074,7 +13071,7 @@
         <v>44235</v>
       </c>
       <c r="I403" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -13082,7 +13079,7 @@
         <v>99</v>
       </c>
       <c r="B404" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C404" t="s">
         <v>104</v>
@@ -13103,7 +13100,7 @@
         <v>44235</v>
       </c>
       <c r="I404" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -13111,7 +13108,7 @@
         <v>106</v>
       </c>
       <c r="B405" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C405" t="s">
         <v>107</v>
@@ -13129,7 +13126,7 @@
         <v>44235</v>
       </c>
       <c r="I405" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -13137,7 +13134,7 @@
         <v>106</v>
       </c>
       <c r="B406" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C406" t="s">
         <v>109</v>
@@ -13155,7 +13152,7 @@
         <v>44235</v>
       </c>
       <c r="I406" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -13163,7 +13160,7 @@
         <v>106</v>
       </c>
       <c r="B407" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C407" t="s">
         <v>111</v>
@@ -13181,7 +13178,7 @@
         <v>44235</v>
       </c>
       <c r="I407" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -13189,7 +13186,7 @@
         <v>106</v>
       </c>
       <c r="B408" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C408" t="s">
         <v>113</v>
@@ -13207,7 +13204,7 @@
         <v>44235</v>
       </c>
       <c r="I408" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -13215,7 +13212,7 @@
         <v>106</v>
       </c>
       <c r="B409" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C409" t="s">
         <v>115</v>
@@ -13233,7 +13230,7 @@
         <v>44235</v>
       </c>
       <c r="I409" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -13241,7 +13238,7 @@
         <v>106</v>
       </c>
       <c r="B410" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C410" t="s">
         <v>117</v>
@@ -13259,7 +13256,7 @@
         <v>44235</v>
       </c>
       <c r="I410" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -13267,7 +13264,7 @@
         <v>106</v>
       </c>
       <c r="B411" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C411" t="s">
         <v>119</v>
@@ -13285,7 +13282,7 @@
         <v>44235</v>
       </c>
       <c r="I411" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -13293,7 +13290,7 @@
         <v>106</v>
       </c>
       <c r="B412" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C412" t="s">
         <v>121</v>
@@ -13311,7 +13308,7 @@
         <v>44235</v>
       </c>
       <c r="I412" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -13319,7 +13316,7 @@
         <v>106</v>
       </c>
       <c r="B413" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C413" t="s">
         <v>123</v>
@@ -13337,7 +13334,7 @@
         <v>44235</v>
       </c>
       <c r="I413" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -13345,7 +13342,7 @@
         <v>106</v>
       </c>
       <c r="B414" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C414" t="s">
         <v>125</v>
@@ -13363,7 +13360,7 @@
         <v>44235</v>
       </c>
       <c r="I414" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -13371,7 +13368,7 @@
         <v>106</v>
       </c>
       <c r="B415" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C415" t="s">
         <v>127</v>
@@ -13389,7 +13386,7 @@
         <v>44235</v>
       </c>
       <c r="I415" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -13397,7 +13394,7 @@
         <v>106</v>
       </c>
       <c r="B416" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C416" t="s">
         <v>129</v>
@@ -13415,7 +13412,7 @@
         <v>44235</v>
       </c>
       <c r="I416" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -13423,7 +13420,7 @@
         <v>106</v>
       </c>
       <c r="B417" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C417" t="s">
         <v>131</v>
@@ -13441,7 +13438,7 @@
         <v>44235</v>
       </c>
       <c r="I417" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -13449,7 +13446,7 @@
         <v>106</v>
       </c>
       <c r="B418" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C418" t="s">
         <v>133</v>
@@ -13467,7 +13464,7 @@
         <v>44235</v>
       </c>
       <c r="I418" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -13475,7 +13472,7 @@
         <v>5</v>
       </c>
       <c r="B419" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E419" s="2">
         <v>151215</v>
@@ -13487,7 +13484,7 @@
         <v>44265</v>
       </c>
       <c r="I419" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -13495,7 +13492,7 @@
         <v>93</v>
       </c>
       <c r="B420" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E420" s="2">
         <v>87157</v>
@@ -13507,7 +13504,7 @@
         <v>44265</v>
       </c>
       <c r="I420" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -13515,7 +13512,7 @@
         <v>54</v>
       </c>
       <c r="B421" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E421" s="2">
         <v>401222</v>
@@ -13527,7 +13524,7 @@
         <v>44265</v>
       </c>
       <c r="I421" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -13547,7 +13544,7 @@
         <v>44265</v>
       </c>
       <c r="I422" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -13555,7 +13552,7 @@
         <v>35</v>
       </c>
       <c r="B423" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E423" s="2">
         <v>161206</v>
@@ -13567,7 +13564,7 @@
         <v>44265</v>
       </c>
       <c r="I423" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -13575,7 +13572,7 @@
         <v>187</v>
       </c>
       <c r="B424" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E424" s="2">
         <v>36652</v>
@@ -13587,7 +13584,7 @@
         <v>44265</v>
       </c>
       <c r="I424" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -13595,7 +13592,7 @@
         <v>19</v>
       </c>
       <c r="B425" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E425" s="2">
         <v>457201</v>
@@ -13607,7 +13604,7 @@
         <v>44265</v>
       </c>
       <c r="I425" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -13615,7 +13612,7 @@
         <v>99</v>
       </c>
       <c r="B426" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E426" s="2">
         <v>1134982</v>
@@ -13627,7 +13624,7 @@
         <v>44265</v>
       </c>
       <c r="I426" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -13635,7 +13632,7 @@
         <v>106</v>
       </c>
       <c r="B427" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E427" s="2">
         <v>89838</v>
@@ -13647,7 +13644,7 @@
         <v>44265</v>
       </c>
       <c r="I427" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -13655,10 +13652,10 @@
         <v>93</v>
       </c>
       <c r="B428" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C428" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D428" t="s">
         <v>97</v>
@@ -13676,7 +13673,7 @@
         <v>44278</v>
       </c>
       <c r="I428" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -13684,7 +13681,7 @@
         <v>19</v>
       </c>
       <c r="B429" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C429" t="s">
         <v>180</v>
@@ -13705,7 +13702,7 @@
         <v>44278</v>
       </c>
       <c r="I429" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -13713,7 +13710,7 @@
         <v>99</v>
       </c>
       <c r="B430" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C430" t="s">
         <v>100</v>
@@ -13734,7 +13731,7 @@
         <v>44278</v>
       </c>
       <c r="I430" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -13742,7 +13739,7 @@
         <v>99</v>
       </c>
       <c r="B431" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C431" t="s">
         <v>102</v>
@@ -13763,7 +13760,7 @@
         <v>44278</v>
       </c>
       <c r="I431" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -13771,7 +13768,7 @@
         <v>99</v>
       </c>
       <c r="B432" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C432" t="s">
         <v>104</v>
@@ -13792,7 +13789,7 @@
         <v>44278</v>
       </c>
       <c r="I432" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -13800,7 +13797,7 @@
         <v>54</v>
       </c>
       <c r="B433" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C433" t="s">
         <v>66</v>
@@ -13818,7 +13815,7 @@
         <v>44278</v>
       </c>
       <c r="I433" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -13832,6 +13829,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
     <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
@@ -14048,22 +14060,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BED90AC-D4A9-46C8-9AFB-D9C4BC9AFDA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B51F62E-8D92-46EF-BBC4-A3E98ACFE27F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A9D398A-65AF-4384-8786-A2F89DB7FB27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14080,21 +14094,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B51F62E-8D92-46EF-BBC4-A3E98ACFE27F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BED90AC-D4A9-46C8-9AFB-D9C4BC9AFDA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/storage/app/public/input data/nutrition.xlsx
+++ b/storage/app/public/input data/nutrition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\United Nations\United Nations\OCHA ROWCA Premium BI SG - Information Management\30 DataBase\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{6113D622-B924-49D7-B775-714E8018235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{9D918ECA-2766-480C-A566-F314E384B7FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28B185-F079-47DF-8229-8F16E3FB5727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="265">
   <si>
     <t>Country</t>
   </si>
@@ -1104,9 +1104,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1147,9 +1148,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1157,8 +1159,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers 6 6" xfId="2" xr:uid="{2F47E556-F1CC-4C6F-A434-9644157FF7AB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1188,8 +1191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45269144-F317-4114-9AD0-B0ABC756E2DB}" name="Tableau1" displayName="Tableau1" ref="A1:I433" totalsRowShown="0">
-  <autoFilter ref="A1:I433" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45269144-F317-4114-9AD0-B0ABC756E2DB}" name="Tableau1" displayName="Tableau1" ref="A1:I440" totalsRowShown="0">
+  <autoFilter ref="A1:I440" xr:uid="{8E97DBEE-C488-493C-B04F-813E289F0DF4}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D10F8B06-A887-41EE-91FF-2EFE1D042C0A}" name="Country"/>
     <tableColumn id="2" xr3:uid="{E8BC8353-A2AE-4C84-8D9E-A8A264474DBB}" name="Countryiso3"/>
@@ -1560,13 +1563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57:C428"/>
+      <selection pane="bottomRight" activeCell="C457" sqref="C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13815,6 +13818,132 @@
         <v>44278</v>
       </c>
       <c r="I433" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" t="s">
+        <v>241</v>
+      </c>
+      <c r="E434" s="2">
+        <v>3847</v>
+      </c>
+      <c r="G434" s="3"/>
+      <c r="H434" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I434" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>93</v>
+      </c>
+      <c r="B435" t="s">
+        <v>245</v>
+      </c>
+      <c r="E435" s="2">
+        <v>4704</v>
+      </c>
+      <c r="G435" s="3"/>
+      <c r="H435" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I435" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>54</v>
+      </c>
+      <c r="B436" t="s">
+        <v>244</v>
+      </c>
+      <c r="E436" s="2">
+        <v>23863</v>
+      </c>
+      <c r="G436" s="3"/>
+      <c r="H436" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I436" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>35</v>
+      </c>
+      <c r="B437" t="s">
+        <v>243</v>
+      </c>
+      <c r="E437" s="2">
+        <v>8190</v>
+      </c>
+      <c r="G437" s="3"/>
+      <c r="H437" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I437" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>187</v>
+      </c>
+      <c r="B438" t="s">
+        <v>248</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1889</v>
+      </c>
+      <c r="G438" s="3"/>
+      <c r="H438" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I438" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>19</v>
+      </c>
+      <c r="B439" t="s">
+        <v>242</v>
+      </c>
+      <c r="E439" s="2">
+        <v>27016</v>
+      </c>
+      <c r="G439" s="3"/>
+      <c r="H439" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I439" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>99</v>
+      </c>
+      <c r="B440" t="s">
+        <v>246</v>
+      </c>
+      <c r="E440" s="2">
+        <v>22845</v>
+      </c>
+      <c r="G440" s="3"/>
+      <c r="H440" s="1">
+        <v>44316</v>
+      </c>
+      <c r="I440" t="s">
         <v>264</v>
       </c>
     </row>
@@ -13844,8 +13973,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50aeec476661c30e845a2cd6846c61bd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a4705a85e7f1e3f92bbfef7bdcb72a8" ns2:_="" ns3:_="">
     <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
     <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
     <xsd:element name="properties">
@@ -13866,6 +13995,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13928,6 +14058,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -14078,7 +14213,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A9D398A-65AF-4384-8786-A2F89DB7FB27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF8A651-948D-4A79-85E1-64885537F141}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
